--- a/in.xlsx
+++ b/in.xlsx
@@ -4355,7 +4355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4395,17 +4395,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4691,7 +4688,7 @@
   <dimension ref="A1:Z293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4842,19 +4839,19 @@
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>421</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <v>433</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -4892,19 +4889,19 @@
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>424</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>435</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <v>21</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -4942,10 +4939,10 @@
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>308</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -4983,19 +4980,19 @@
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>249</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>167</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <v>15</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -5033,28 +5030,28 @@
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>421</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>15</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <v>435</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <v>15</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="1">
         <v>168</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="1">
         <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -5092,46 +5089,46 @@
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>421</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>10</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>245</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="1">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
         <v>434</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
         <v>4</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="1">
         <v>211</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="1">
         <v>2</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="1">
         <v>9022</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="1">
         <v>4</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -5169,10 +5166,10 @@
       <c r="J9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>9035</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -5210,19 +5207,19 @@
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>293</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>389</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="1">
         <v>35</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -5260,10 +5257,10 @@
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>426</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>35</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -5301,19 +5298,19 @@
       <c r="J12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>406</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>448</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
         <v>15</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -5325,7 +5322,7 @@
       <c r="T12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="1">
         <v>1</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -5363,19 +5360,19 @@
       <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>308</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>14</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="1">
         <v>389</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="1">
         <v>21</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -5413,19 +5410,19 @@
       <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>421</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <v>9022</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="1">
         <v>10</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -5466,10 +5463,10 @@
       <c r="J15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>245</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>43.5</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -5507,28 +5504,28 @@
       <c r="J16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>9022</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="1">
         <v>9022</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="1">
         <v>8</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="1">
         <v>9022</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="1">
         <v>7</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -5566,10 +5563,10 @@
       <c r="J17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>9034</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>35</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -5607,10 +5604,10 @@
       <c r="J18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>211</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <v>35</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -5648,28 +5645,28 @@
       <c r="J19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>424</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>16</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <v>414</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="1">
         <v>16</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="1">
         <v>9027</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="1">
         <v>3</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -5710,19 +5707,19 @@
       <c r="J20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>169</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>212</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="1">
         <v>14</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -5763,19 +5760,19 @@
       <c r="J21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>9034</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>35</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>389</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="1">
         <v>20</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -5813,10 +5810,10 @@
       <c r="J22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>245</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -5857,28 +5854,28 @@
       <c r="J23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>433</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>10</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <v>424</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="1">
         <v>30</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="1">
         <v>249</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="1">
         <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -5919,10 +5916,10 @@
       <c r="J24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>435</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>43</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -5960,19 +5957,19 @@
       <c r="J25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>421</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>15</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <v>435</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="1">
         <v>20</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -6013,10 +6010,10 @@
       <c r="J26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>293</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="1">
         <v>35</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -6057,10 +6054,10 @@
       <c r="J27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>183</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="1">
         <v>35</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -6098,19 +6095,19 @@
       <c r="J28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <v>293</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="1">
         <v>21</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="1">
         <v>9038</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="1">
         <v>21</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -6148,16 +6145,16 @@
       <c r="J29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <v>421</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="1">
         <v>7</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="1">
         <v>245</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="1">
         <v>35</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -6198,19 +6195,19 @@
       <c r="J30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <v>249</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="1">
         <v>28</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="1">
         <v>211</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="1">
         <v>7</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -6248,10 +6245,10 @@
       <c r="J31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <v>307</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="1">
         <v>35</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -6289,19 +6286,19 @@
       <c r="J32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <v>168</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="1">
         <v>30</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="1">
         <v>183</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="1">
         <v>8</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -6339,46 +6336,46 @@
       <c r="J33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>245</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <v>10.5</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="1">
         <v>245</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="1">
         <v>12.8</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="1">
         <v>245</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="1">
         <v>9.51</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="1">
         <v>245</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="1">
         <v>11.55</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="1">
         <v>245</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="1">
         <v>12</v>
       </c>
       <c r="Y33" s="1" t="s">
@@ -6419,10 +6416,10 @@
       <c r="J34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>421</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <v>60</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -6460,10 +6457,10 @@
       <c r="J35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>245</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="1">
         <v>35</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -6501,19 +6498,19 @@
       <c r="J36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>421</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="1">
         <v>30</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="1">
         <v>421</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="1">
         <v>5</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -6551,37 +6548,37 @@
       <c r="J37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>9035</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="1">
         <v>14</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="1">
         <v>9035</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="1">
         <v>7</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="1">
         <v>389</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="1">
         <v>7</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="1">
         <v>389</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37" s="1">
         <v>7</v>
       </c>
       <c r="V37" s="1" t="s">
@@ -6622,46 +6619,46 @@
       <c r="J38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <v>424</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="1">
         <v>24</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="1">
         <v>407</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="1">
         <v>7</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="1">
         <v>245</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="1">
         <v>4</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="1">
         <v>411</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="1">
         <v>2</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="1">
         <v>389</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="1">
         <v>3</v>
       </c>
       <c r="Y38" s="1" t="s">
@@ -6699,10 +6696,10 @@
       <c r="J39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <v>9035</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="1">
         <v>14</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -6746,10 +6743,10 @@
       <c r="J40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <v>9027</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="1">
         <v>28</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -6790,19 +6787,19 @@
       <c r="J41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <v>249</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="1">
         <v>28</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="1">
         <v>249</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="1">
         <v>7</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -6840,19 +6837,19 @@
       <c r="J42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <v>435</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="1">
         <v>14</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="1">
         <v>421</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="1">
         <v>21</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -6890,28 +6887,28 @@
       <c r="J43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="1">
         <v>9035</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="1">
         <v>27</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="1">
         <v>435</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="1">
         <v>4</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="1">
         <v>168</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="1">
         <v>4</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -6952,28 +6949,28 @@
       <c r="J44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>245</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <v>21</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <v>411</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="1">
         <v>7</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="1">
         <v>9035</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="1">
         <v>7</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -7014,19 +7011,19 @@
       <c r="J45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="1">
         <v>423</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <v>30</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <v>421</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="1">
         <v>10</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -7064,46 +7061,46 @@
       <c r="J46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="1">
         <v>241</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <v>25</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <v>358</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="1">
         <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="1">
         <v>406</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="1">
         <v>7</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="1">
         <v>389</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="1">
         <v>5</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="1">
         <v>9027</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="1">
         <v>3</v>
       </c>
       <c r="Y46" s="1" t="s">
@@ -7144,19 +7141,19 @@
       <c r="J47" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>308</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <v>7</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="1">
         <v>245</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="1">
         <v>28</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -7194,37 +7191,37 @@
       <c r="J48" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="1">
         <v>402</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <v>7</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <v>403</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="1">
         <v>7</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="1">
         <v>368</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="1">
         <v>3</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="1">
         <v>9035</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="1">
         <v>18</v>
       </c>
       <c r="V48" s="1" t="s">
@@ -7265,46 +7262,46 @@
       <c r="J49" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="1">
         <v>430</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <v>15</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="1">
         <v>429</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="1">
         <v>15</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="1">
         <v>436</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="1">
         <v>2</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="1">
         <v>9035</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="1">
         <v>3</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="1">
         <v>71</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="1">
         <v>3</v>
       </c>
       <c r="Y49" s="1" t="s">
@@ -7345,19 +7342,19 @@
       <c r="J50" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="1">
         <v>300</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <v>1</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <v>9035</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="1">
         <v>35</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -7398,46 +7395,46 @@
       <c r="J51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>389</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <v>31</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>406</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="1">
         <v>8</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="1">
         <v>287</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="1">
         <v>8</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="1">
         <v>434</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U51" s="1">
         <v>2</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="1">
         <v>196</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X51" s="1">
         <v>2</v>
       </c>
       <c r="Y51" s="1" t="s">
@@ -7478,19 +7475,19 @@
       <c r="J52" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="1">
         <v>5009</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
         <v>21</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <v>309</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="1">
         <v>21</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -7531,46 +7528,46 @@
       <c r="J53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="1">
         <v>9021</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="1">
         <v>7</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="1">
         <v>397</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="1">
         <v>7</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q53" s="1">
         <v>369</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53" s="1">
         <v>2</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T53" s="1">
         <v>318</v>
       </c>
-      <c r="U53" s="3">
+      <c r="U53" s="1">
         <v>2</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="1">
         <v>9027</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="1">
         <v>17</v>
       </c>
       <c r="Y53" s="1" t="s">
@@ -7611,19 +7608,19 @@
       <c r="J54" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="1">
         <v>293</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="1">
         <v>35</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="1">
         <v>9038</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="1">
         <v>14</v>
       </c>
       <c r="P54" s="1" t="s">
@@ -7661,10 +7658,10 @@
       <c r="J55" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="1">
         <v>397</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="1">
         <v>45</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -7702,10 +7699,10 @@
       <c r="J56" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="1">
         <v>293</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="1">
         <v>45</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -7746,10 +7743,10 @@
       <c r="J57" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="1">
         <v>9022</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="1">
         <v>35</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -7787,37 +7784,37 @@
       <c r="J58" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="1">
         <v>249</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="1">
         <v>7</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="1">
         <v>161</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="1">
         <v>7</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="1">
         <v>9022</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="1">
         <v>7</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="1">
         <v>211</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="1">
         <v>14</v>
       </c>
       <c r="V58" s="1" t="s">
@@ -7855,19 +7852,19 @@
       <c r="J59" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="1">
         <v>424</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="1">
         <v>21</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="1">
         <v>435</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="1">
         <v>14</v>
       </c>
       <c r="P59" s="1" t="s">
@@ -7905,19 +7902,19 @@
       <c r="J60" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="1">
         <v>167</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="1">
         <v>35</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="1">
         <v>293</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="1">
         <v>10</v>
       </c>
       <c r="P60" s="1" t="s">
@@ -7955,10 +7952,10 @@
       <c r="J61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="1">
         <v>245</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="1">
         <v>57</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -7996,10 +7993,10 @@
       <c r="J62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="1">
         <v>293</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="1">
         <v>40</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -8040,19 +8037,19 @@
       <c r="J63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="1">
         <v>211</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="1">
         <v>32</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63" s="1">
         <v>167</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="1">
         <v>4</v>
       </c>
       <c r="P63" s="1" t="s">
@@ -8090,46 +8087,46 @@
       <c r="J64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="1">
         <v>421</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="1">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="1">
         <v>434</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="1">
         <v>6</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q64" s="1">
         <v>211</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R64" s="1">
         <v>2</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="T64" s="3">
+      <c r="T64" s="1">
         <v>245</v>
       </c>
-      <c r="U64" s="3">
+      <c r="U64" s="1">
         <v>7</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="W64" s="3">
+      <c r="W64" s="1">
         <v>161</v>
       </c>
-      <c r="X64" s="3">
+      <c r="X64" s="1">
         <v>4</v>
       </c>
       <c r="Y64" s="1" t="s">
@@ -8167,46 +8164,46 @@
       <c r="J65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="1">
         <v>249</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="1">
         <v>5</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="1">
         <v>424</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65" s="1">
         <v>25</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="Q65" s="1">
         <v>425</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R65" s="1">
         <v>2</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="T65" s="3">
+      <c r="T65" s="1">
         <v>168</v>
       </c>
-      <c r="U65" s="3">
+      <c r="U65" s="1">
         <v>10</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="W65" s="3">
+      <c r="W65" s="1">
         <v>293</v>
       </c>
-      <c r="X65" s="3">
+      <c r="X65" s="1">
         <v>7</v>
       </c>
       <c r="Y65" s="1" t="s">
@@ -8247,28 +8244,28 @@
       <c r="J66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="1">
         <v>167</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="1">
         <v>21</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="1">
         <v>169</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="1">
         <v>7</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="1">
         <v>212</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="1">
         <v>7</v>
       </c>
       <c r="S66" s="1" t="s">
@@ -8306,19 +8303,19 @@
       <c r="J67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="1">
         <v>425</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="1">
         <v>7</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67" s="1">
         <v>422</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67" s="1">
         <v>28</v>
       </c>
       <c r="P67" s="1" t="s">
@@ -8356,19 +8353,19 @@
       <c r="J68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="1">
         <v>421</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="1">
         <v>15</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="1">
         <v>435</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="1">
         <v>20</v>
       </c>
       <c r="P68" s="1" t="s">
@@ -8409,28 +8406,28 @@
       <c r="J69" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="1">
         <v>9035</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="1">
         <v>21</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="1">
         <v>9035</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69" s="1">
         <v>2</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="Q69" s="1">
         <v>9035</v>
       </c>
-      <c r="R69" s="3">
+      <c r="R69" s="1">
         <v>5</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -8471,28 +8468,28 @@
       <c r="J70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="1">
         <v>435</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="1">
         <v>15</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="1">
         <v>421</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="1">
         <v>15</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q70" s="1">
         <v>433</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R70" s="1">
         <v>5</v>
       </c>
       <c r="S70" s="1" t="s">
@@ -8530,46 +8527,46 @@
       <c r="J71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="1">
         <v>190</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="1">
         <v>7</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="1">
         <v>161</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71" s="1">
         <v>4</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="Q71" s="1">
         <v>9035</v>
       </c>
-      <c r="R71" s="3">
+      <c r="R71" s="1">
         <v>14</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="T71" s="3">
+      <c r="T71" s="1">
         <v>382</v>
       </c>
-      <c r="U71" s="3">
+      <c r="U71" s="1">
         <v>4</v>
       </c>
       <c r="V71" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="W71" s="3">
+      <c r="W71" s="1">
         <v>212</v>
       </c>
-      <c r="X71" s="3">
+      <c r="X71" s="1">
         <v>6</v>
       </c>
       <c r="Y71" s="1" t="s">
@@ -8610,37 +8607,37 @@
       <c r="J72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="1">
         <v>406</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="1">
         <v>11</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="1">
         <v>287</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="1">
         <v>16</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="1">
         <v>389</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="1">
         <v>5</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="1">
         <v>422</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="1">
         <v>5</v>
       </c>
       <c r="V72" s="1" t="s">
@@ -8681,10 +8678,10 @@
       <c r="J73" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="1">
         <v>308</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="1">
         <v>47</v>
       </c>
       <c r="M73" s="1" t="s">
@@ -8722,46 +8719,46 @@
       <c r="J74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="1">
         <v>429</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="1">
         <v>15</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="1">
         <v>403</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="1">
         <v>15</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="Q74" s="1">
         <v>416</v>
       </c>
-      <c r="R74" s="3">
+      <c r="R74" s="1">
         <v>2</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="T74" s="3">
+      <c r="T74" s="1">
         <v>403</v>
       </c>
-      <c r="U74" s="3">
+      <c r="U74" s="1">
         <v>6</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W74" s="3">
+      <c r="W74" s="1">
         <v>9035</v>
       </c>
-      <c r="X74" s="3">
+      <c r="X74" s="1">
         <v>3</v>
       </c>
       <c r="Y74" s="1" t="s">
@@ -8802,10 +8799,10 @@
       <c r="J75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="1">
         <v>245</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="1">
         <v>45</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -8843,28 +8840,28 @@
       <c r="J76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="1">
         <v>421</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="1">
         <v>14</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="1">
         <v>433</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="1">
         <v>20</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="1">
         <v>308</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="1">
         <v>4</v>
       </c>
       <c r="S76" s="1" t="s">
@@ -8902,10 +8899,10 @@
       <c r="J77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="1">
         <v>435</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="1">
         <v>45</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -8943,28 +8940,28 @@
       <c r="J78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="1">
         <v>212</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="1">
         <v>14</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="1">
         <v>421</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="1">
         <v>14</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="1">
         <v>245</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="1">
         <v>10</v>
       </c>
       <c r="S78" s="1" t="s">
@@ -9002,46 +8999,46 @@
       <c r="J79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="1">
         <v>9022</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="1">
         <v>10</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="1">
         <v>212</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="1">
         <v>11</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="Q79" s="1">
         <v>212</v>
       </c>
-      <c r="R79" s="3">
+      <c r="R79" s="1">
         <v>9</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="T79" s="3">
+      <c r="T79" s="1">
         <v>245</v>
       </c>
-      <c r="U79" s="3">
+      <c r="U79" s="1">
         <v>9</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="W79" s="3">
+      <c r="W79" s="1">
         <v>245</v>
       </c>
-      <c r="X79" s="3">
+      <c r="X79" s="1">
         <v>3</v>
       </c>
       <c r="Y79" s="1" t="s">
@@ -9082,10 +9079,10 @@
       <c r="J80" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="1">
         <v>369</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="1">
         <v>42</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -9126,10 +9123,10 @@
       <c r="J81" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="1">
         <v>211</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="1">
         <v>28</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -9167,19 +9164,19 @@
       <c r="J82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="1">
         <v>397</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="1">
         <v>40</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="1">
         <v>293</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="1">
         <v>12</v>
       </c>
       <c r="P82" s="1" t="s">
@@ -9217,10 +9214,10 @@
       <c r="J83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="1">
         <v>421</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="1">
         <v>50</v>
       </c>
       <c r="M83" s="1" t="s">
@@ -9258,10 +9255,10 @@
       <c r="J84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="1">
         <v>9021</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="1">
         <v>36</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -9302,10 +9299,10 @@
       <c r="J85" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="1">
         <v>183</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="1">
         <v>35</v>
       </c>
       <c r="M85" s="1" t="s">
@@ -9343,37 +9340,37 @@
       <c r="J86" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="1">
         <v>161</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="1">
         <v>4</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N86" s="1">
         <v>249</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86" s="1">
         <v>4</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="Q86" s="1">
         <v>245</v>
       </c>
-      <c r="R86" s="3">
+      <c r="R86" s="1">
         <v>25</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="T86" s="3">
+      <c r="T86" s="1">
         <v>9022</v>
       </c>
-      <c r="U86" s="3">
+      <c r="U86" s="1">
         <v>5</v>
       </c>
       <c r="V86" s="1" t="s">
@@ -9411,10 +9408,10 @@
       <c r="J87" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="1">
         <v>245</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="1">
         <v>40</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -9455,10 +9452,10 @@
       <c r="J88" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="1">
         <v>245</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="1">
         <v>36</v>
       </c>
       <c r="M88" s="1" t="s">
@@ -9496,19 +9493,19 @@
       <c r="J89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="1">
         <v>245</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="1">
         <v>35</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="1">
         <v>426</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="1">
         <v>5</v>
       </c>
       <c r="P89" s="1" t="s">
@@ -9546,19 +9543,19 @@
       <c r="J90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="1">
         <v>433</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="1">
         <v>32</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N90" s="1">
         <v>424</v>
       </c>
-      <c r="O90" s="3">
+      <c r="O90" s="1">
         <v>6</v>
       </c>
       <c r="P90" s="1" t="s">
@@ -9596,10 +9593,10 @@
       <c r="J91" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="1">
         <v>426</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="1">
         <v>35</v>
       </c>
       <c r="M91" s="1" t="s">
@@ -9637,10 +9634,10 @@
       <c r="J92" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="1">
         <v>421</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="1">
         <v>35</v>
       </c>
       <c r="M92" s="1" t="s">
@@ -9678,10 +9675,10 @@
       <c r="J93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="1">
         <v>307</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="1">
         <v>35</v>
       </c>
       <c r="M93" s="1" t="s">
@@ -9719,19 +9716,19 @@
       <c r="J94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="1">
         <v>9022</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="1">
         <v>30</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="1">
         <v>9022</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="1">
         <v>5</v>
       </c>
       <c r="P94" s="1" t="s">
@@ -9769,28 +9766,28 @@
       <c r="J95" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="1">
         <v>426</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="1">
         <v>15</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N95" s="1">
         <v>424</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95" s="1">
         <v>17</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q95" s="1">
         <v>9027</v>
       </c>
-      <c r="R95" s="3">
+      <c r="R95" s="1">
         <v>4</v>
       </c>
       <c r="S95" s="1" t="s">
@@ -9831,37 +9828,37 @@
       <c r="J96" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="1">
         <v>396</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="1">
         <v>7</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N96" s="1">
         <v>369</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96" s="1">
         <v>7</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="Q96" s="1">
         <v>406</v>
       </c>
-      <c r="R96" s="3">
+      <c r="R96" s="1">
         <v>7</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T96" s="3">
+      <c r="T96" s="1">
         <v>9035</v>
       </c>
-      <c r="U96" s="3">
+      <c r="U96" s="1">
         <v>14</v>
       </c>
       <c r="V96" s="1" t="s">
@@ -9902,10 +9899,10 @@
       <c r="J97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="1">
         <v>245</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="1">
         <v>43</v>
       </c>
       <c r="M97" s="1" t="s">
@@ -9946,28 +9943,28 @@
       <c r="J98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="1">
         <v>308</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98" s="1">
         <v>7</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N98" s="3">
+      <c r="N98" s="1">
         <v>9022</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98" s="1">
         <v>5</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="Q98" s="1">
         <v>245</v>
       </c>
-      <c r="R98" s="3">
+      <c r="R98" s="1">
         <v>25</v>
       </c>
       <c r="S98" s="1" t="s">
@@ -10005,37 +10002,37 @@
       <c r="J99" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="1">
         <v>245</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99" s="1">
         <v>15</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="N99" s="3">
+      <c r="N99" s="1">
         <v>245</v>
       </c>
-      <c r="O99" s="3">
+      <c r="O99" s="1">
         <v>15</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q99" s="3">
+      <c r="Q99" s="1">
         <v>245</v>
       </c>
-      <c r="R99" s="3">
+      <c r="R99" s="1">
         <v>5</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="T99" s="3">
+      <c r="T99" s="1">
         <v>212</v>
       </c>
-      <c r="U99" s="3">
+      <c r="U99" s="1">
         <v>10</v>
       </c>
       <c r="V99" s="1" t="s">
@@ -10076,19 +10073,19 @@
       <c r="J100" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="1">
         <v>241</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="1">
         <v>32</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="1">
         <v>406</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="1">
         <v>3</v>
       </c>
       <c r="P100" s="1" t="s">
@@ -10129,19 +10126,19 @@
       <c r="J101" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="1">
         <v>9021</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="1">
         <v>14</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="1">
         <v>293</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="1">
         <v>21</v>
       </c>
       <c r="P101" s="1" t="s">
@@ -10182,19 +10179,19 @@
       <c r="J102" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="1">
         <v>245</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="1">
         <v>28</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="1">
         <v>308</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="1">
         <v>8</v>
       </c>
       <c r="P102" s="1" t="s">
@@ -10235,10 +10232,10 @@
       <c r="J103" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="1">
         <v>340</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103" s="1">
         <v>39.450000000000003</v>
       </c>
       <c r="M103" s="1" t="s">
@@ -10279,19 +10276,19 @@
       <c r="J104" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="1">
         <v>402</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104" s="1">
         <v>10</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N104" s="3">
+      <c r="N104" s="1">
         <v>9034</v>
       </c>
-      <c r="O104" s="3">
+      <c r="O104" s="1">
         <v>25</v>
       </c>
       <c r="P104" s="1" t="s">
@@ -10329,19 +10326,19 @@
       <c r="J105" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="1">
         <v>421</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105" s="1">
         <v>21</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N105" s="3">
+      <c r="N105" s="1">
         <v>435</v>
       </c>
-      <c r="O105" s="3">
+      <c r="O105" s="1">
         <v>14</v>
       </c>
       <c r="P105" s="1" t="s">
@@ -10379,28 +10376,28 @@
       <c r="J106" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="1">
         <v>407</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="1">
         <v>14</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N106" s="1">
         <v>424</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O106" s="1">
         <v>14</v>
       </c>
       <c r="P106" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="Q106" s="1">
         <v>395</v>
       </c>
-      <c r="R106" s="3">
+      <c r="R106" s="1">
         <v>7</v>
       </c>
       <c r="S106" s="1" t="s">
@@ -10438,19 +10435,19 @@
       <c r="J107" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="1">
         <v>423</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="1">
         <v>35</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N107" s="1">
         <v>421</v>
       </c>
-      <c r="O107" s="3">
+      <c r="O107" s="1">
         <v>4</v>
       </c>
       <c r="P107" s="1" t="s">
@@ -10488,10 +10485,10 @@
       <c r="J108" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="1">
         <v>9035</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="1">
         <v>35</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -10532,10 +10529,10 @@
       <c r="J109" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="1">
         <v>9035</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="1">
         <v>35</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -10573,19 +10570,19 @@
       <c r="J110" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="1">
         <v>245</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="1">
         <v>35</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="N110" s="3">
+      <c r="N110" s="1">
         <v>421</v>
       </c>
-      <c r="O110" s="3">
+      <c r="O110" s="1">
         <v>11</v>
       </c>
       <c r="P110" s="1" t="s">
@@ -10626,28 +10623,28 @@
       <c r="J111" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="1">
         <v>245</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L111" s="1">
         <v>30</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N111" s="3">
+      <c r="N111" s="1">
         <v>423</v>
       </c>
-      <c r="O111" s="3">
+      <c r="O111" s="1">
         <v>2</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="Q111" s="3">
+      <c r="Q111" s="1">
         <v>422</v>
       </c>
-      <c r="R111" s="3">
+      <c r="R111" s="1">
         <v>3</v>
       </c>
       <c r="S111" s="1" t="s">
@@ -10685,46 +10682,46 @@
       <c r="J112" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="1">
         <v>169</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L112" s="1">
         <v>3</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="N112" s="3">
+      <c r="N112" s="1">
         <v>241</v>
       </c>
-      <c r="O112" s="3">
+      <c r="O112" s="1">
         <v>3</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Q112" s="3">
+      <c r="Q112" s="1">
         <v>394</v>
       </c>
-      <c r="R112" s="3">
+      <c r="R112" s="1">
         <v>3</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="T112" s="3">
+      <c r="T112" s="1">
         <v>307</v>
       </c>
-      <c r="U112" s="3">
+      <c r="U112" s="1">
         <v>3</v>
       </c>
       <c r="V112" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="W112" s="3">
+      <c r="W112" s="1">
         <v>9035</v>
       </c>
-      <c r="X112" s="3">
+      <c r="X112" s="1">
         <v>23</v>
       </c>
       <c r="Y112" s="1" t="s">
@@ -10765,19 +10762,19 @@
       <c r="J113" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="1">
         <v>5009</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L113" s="1">
         <v>28</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="N113" s="3">
+      <c r="N113" s="1">
         <v>314</v>
       </c>
-      <c r="O113" s="3">
+      <c r="O113" s="1">
         <v>7</v>
       </c>
       <c r="P113" s="1" t="s">
@@ -10818,46 +10815,46 @@
       <c r="J114" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="1">
         <v>9035</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114" s="1">
         <v>12</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="N114" s="3">
+      <c r="N114" s="1">
         <v>308</v>
       </c>
-      <c r="O114" s="3">
+      <c r="O114" s="1">
         <v>3</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="Q114" s="3">
+      <c r="Q114" s="1">
         <v>183</v>
       </c>
-      <c r="R114" s="3">
+      <c r="R114" s="1">
         <v>5</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="T114" s="3">
+      <c r="T114" s="1">
         <v>248</v>
       </c>
-      <c r="U114" s="3">
+      <c r="U114" s="1">
         <v>8</v>
       </c>
       <c r="V114" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="W114" s="3">
+      <c r="W114" s="1">
         <v>293</v>
       </c>
-      <c r="X114" s="3">
+      <c r="X114" s="1">
         <v>7</v>
       </c>
       <c r="Y114" s="1" t="s">
@@ -10898,46 +10895,46 @@
       <c r="J115" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="1">
         <v>429</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="1">
         <v>15</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N115" s="3">
+      <c r="N115" s="1">
         <v>403</v>
       </c>
-      <c r="O115" s="3">
+      <c r="O115" s="1">
         <v>15</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="Q115" s="3">
+      <c r="Q115" s="1">
         <v>416</v>
       </c>
-      <c r="R115" s="3">
+      <c r="R115" s="1">
         <v>2</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="T115" s="3">
+      <c r="T115" s="1">
         <v>403</v>
       </c>
-      <c r="U115" s="3">
+      <c r="U115" s="1">
         <v>6</v>
       </c>
       <c r="V115" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W115" s="3">
+      <c r="W115" s="1">
         <v>9035</v>
       </c>
-      <c r="X115" s="3">
+      <c r="X115" s="1">
         <v>3</v>
       </c>
       <c r="Y115" s="1" t="s">
@@ -10978,28 +10975,28 @@
       <c r="J116" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="1">
         <v>370</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116" s="1">
         <v>2</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="N116" s="3">
+      <c r="N116" s="1">
         <v>300</v>
       </c>
-      <c r="O116" s="3">
+      <c r="O116" s="1">
         <v>1</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Q116" s="3">
+      <c r="Q116" s="1">
         <v>9035</v>
       </c>
-      <c r="R116" s="3">
+      <c r="R116" s="1">
         <v>33</v>
       </c>
       <c r="S116" s="1" t="s">
@@ -11043,37 +11040,37 @@
       <c r="J117" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="1">
         <v>9035</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L117" s="1">
         <v>10</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="N117" s="3">
+      <c r="N117" s="1">
         <v>9035</v>
       </c>
-      <c r="O117" s="3">
+      <c r="O117" s="1">
         <v>10</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="Q117" s="3">
+      <c r="Q117" s="1">
         <v>9035</v>
       </c>
-      <c r="R117" s="3">
+      <c r="R117" s="1">
         <v>10</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="T117" s="3">
+      <c r="T117" s="1">
         <v>9035</v>
       </c>
-      <c r="U117" s="3">
+      <c r="U117" s="1">
         <v>5</v>
       </c>
       <c r="V117" s="1" t="s">
@@ -11114,46 +11111,46 @@
       <c r="J118" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="1">
         <v>245</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L118" s="1">
         <v>10</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="N118" s="3">
+      <c r="N118" s="1">
         <v>127</v>
       </c>
-      <c r="O118" s="3">
+      <c r="O118" s="1">
         <v>11</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="Q118" s="3">
+      <c r="Q118" s="1">
         <v>245</v>
       </c>
-      <c r="R118" s="3">
+      <c r="R118" s="1">
         <v>11</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="T118" s="3">
+      <c r="T118" s="1">
         <v>9022</v>
       </c>
-      <c r="U118" s="3">
+      <c r="U118" s="1">
         <v>12</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="W118" s="3">
+      <c r="W118" s="1">
         <v>9022</v>
       </c>
-      <c r="X118" s="3">
+      <c r="X118" s="1">
         <v>11</v>
       </c>
       <c r="Y118" s="1" t="s">
@@ -11194,10 +11191,10 @@
       <c r="J119" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="1">
         <v>293</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L119" s="1">
         <v>45</v>
       </c>
       <c r="M119" s="1" t="s">
@@ -11238,10 +11235,10 @@
       <c r="J120" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="1">
         <v>9037</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L120" s="1">
         <v>100</v>
       </c>
       <c r="M120" s="1" t="s">
@@ -11279,10 +11276,10 @@
       <c r="J121" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="1">
         <v>245</v>
       </c>
-      <c r="L121" s="3">
+      <c r="L121" s="1">
         <v>40</v>
       </c>
       <c r="M121" s="1" t="s">
@@ -11320,46 +11317,46 @@
       <c r="J122" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="1">
         <v>168</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L122" s="1">
         <v>14</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="N122" s="3">
+      <c r="N122" s="1">
         <v>169</v>
       </c>
-      <c r="O122" s="3">
+      <c r="O122" s="1">
         <v>14</v>
       </c>
       <c r="P122" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Q122" s="3">
+      <c r="Q122" s="1">
         <v>169</v>
       </c>
-      <c r="R122" s="3">
+      <c r="R122" s="1">
         <v>4</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="T122" s="3">
+      <c r="T122" s="1">
         <v>212</v>
       </c>
-      <c r="U122" s="3">
+      <c r="U122" s="1">
         <v>3</v>
       </c>
       <c r="V122" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="W122" s="3">
+      <c r="W122" s="1">
         <v>161</v>
       </c>
-      <c r="X122" s="3">
+      <c r="X122" s="1">
         <v>2</v>
       </c>
       <c r="Y122" s="1" t="s">
@@ -11397,10 +11394,10 @@
       <c r="J123" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="1">
         <v>397</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L123" s="1">
         <v>35</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -11438,28 +11435,28 @@
       <c r="J124" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="1">
         <v>421</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L124" s="1">
         <v>21</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="N124" s="3">
+      <c r="N124" s="1">
         <v>308</v>
       </c>
-      <c r="O124" s="3">
+      <c r="O124" s="1">
         <v>8</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="Q124" s="3">
+      <c r="Q124" s="1">
         <v>433</v>
       </c>
-      <c r="R124" s="3">
+      <c r="R124" s="1">
         <v>8</v>
       </c>
       <c r="S124" s="1" t="s">
@@ -11497,10 +11494,10 @@
       <c r="J125" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="1">
         <v>424</v>
       </c>
-      <c r="L125" s="3">
+      <c r="L125" s="1">
         <v>35</v>
       </c>
       <c r="M125" s="1" t="s">
@@ -11538,19 +11535,19 @@
       <c r="J126" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="1">
         <v>167</v>
       </c>
-      <c r="L126" s="3">
+      <c r="L126" s="1">
         <v>14</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="N126" s="3">
+      <c r="N126" s="1">
         <v>9022</v>
       </c>
-      <c r="O126" s="3">
+      <c r="O126" s="1">
         <v>24</v>
       </c>
       <c r="P126" s="1" t="s">
@@ -11591,37 +11588,37 @@
       <c r="J127" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="1">
         <v>421</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L127" s="1">
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="N127" s="3">
+      <c r="N127" s="1">
         <v>245</v>
       </c>
-      <c r="O127" s="3">
+      <c r="O127" s="1">
         <v>5</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="Q127" s="3">
+      <c r="Q127" s="1">
         <v>434</v>
       </c>
-      <c r="R127" s="3">
+      <c r="R127" s="1">
         <v>21</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="T127" s="3">
+      <c r="T127" s="1">
         <v>161</v>
       </c>
-      <c r="U127" s="3">
+      <c r="U127" s="1">
         <v>1</v>
       </c>
       <c r="V127" s="1" t="s">
@@ -11659,10 +11656,10 @@
       <c r="J128" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K128" s="3">
+      <c r="K128" s="1">
         <v>245</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L128" s="1">
         <v>50</v>
       </c>
       <c r="M128" s="1" t="s">
@@ -11700,28 +11697,28 @@
       <c r="J129" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K129" s="1">
         <v>167</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L129" s="1">
         <v>22</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="N129" s="3">
+      <c r="N129" s="1">
         <v>212</v>
       </c>
-      <c r="O129" s="3">
+      <c r="O129" s="1">
         <v>6</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="Q129" s="3">
+      <c r="Q129" s="1">
         <v>211</v>
       </c>
-      <c r="R129" s="3">
+      <c r="R129" s="1">
         <v>9</v>
       </c>
       <c r="S129" s="1" t="s">
@@ -11759,10 +11756,10 @@
       <c r="J130" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="1">
         <v>293</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L130" s="1">
         <v>36</v>
       </c>
       <c r="M130" s="1" t="s">
@@ -11803,10 +11800,10 @@
       <c r="J131" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="1">
         <v>9021</v>
       </c>
-      <c r="L131" s="3">
+      <c r="L131" s="1">
         <v>35</v>
       </c>
       <c r="M131" s="1" t="s">
@@ -11847,19 +11844,19 @@
       <c r="J132" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K132" s="3">
+      <c r="K132" s="1">
         <v>406</v>
       </c>
-      <c r="L132" s="3">
+      <c r="L132" s="1">
         <v>25</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="N132" s="3">
+      <c r="N132" s="1">
         <v>407</v>
       </c>
-      <c r="O132" s="3">
+      <c r="O132" s="1">
         <v>10</v>
       </c>
       <c r="P132" s="1" t="s">
@@ -11897,28 +11894,28 @@
       <c r="J133" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K133" s="1">
         <v>161</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L133" s="1">
         <v>15</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="N133" s="3">
+      <c r="N133" s="1">
         <v>211</v>
       </c>
-      <c r="O133" s="3">
+      <c r="O133" s="1">
         <v>15</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="Q133" s="3">
+      <c r="Q133" s="1">
         <v>249</v>
       </c>
-      <c r="R133" s="3">
+      <c r="R133" s="1">
         <v>5</v>
       </c>
       <c r="S133" s="1" t="s">
@@ -11956,28 +11953,28 @@
       <c r="J134" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="1">
         <v>435</v>
       </c>
-      <c r="L134" s="3">
+      <c r="L134" s="1">
         <v>15</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="N134" s="3">
+      <c r="N134" s="1">
         <v>421</v>
       </c>
-      <c r="O134" s="3">
+      <c r="O134" s="1">
         <v>15</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="Q134" s="3">
+      <c r="Q134" s="1">
         <v>245</v>
       </c>
-      <c r="R134" s="3">
+      <c r="R134" s="1">
         <v>6</v>
       </c>
       <c r="S134" s="1" t="s">
@@ -12015,10 +12012,10 @@
       <c r="J135" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K135" s="3">
+      <c r="K135" s="1">
         <v>245</v>
       </c>
-      <c r="L135" s="3">
+      <c r="L135" s="1">
         <v>40</v>
       </c>
       <c r="M135" s="1" t="s">
@@ -12059,28 +12056,28 @@
       <c r="J136" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="1">
         <v>435</v>
       </c>
-      <c r="L136" s="3">
+      <c r="L136" s="1">
         <v>21</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="N136" s="3">
+      <c r="N136" s="1">
         <v>421</v>
       </c>
-      <c r="O136" s="3">
+      <c r="O136" s="1">
         <v>7</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="Q136" s="3">
+      <c r="Q136" s="1">
         <v>245</v>
       </c>
-      <c r="R136" s="3">
+      <c r="R136" s="1">
         <v>7</v>
       </c>
       <c r="S136" s="1" t="s">
@@ -12121,37 +12118,37 @@
       <c r="J137" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="1">
         <v>167</v>
       </c>
-      <c r="L137" s="3">
+      <c r="L137" s="1">
         <v>7</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="N137" s="3">
+      <c r="N137" s="1">
         <v>169</v>
       </c>
-      <c r="O137" s="3">
+      <c r="O137" s="1">
         <v>14</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="Q137" s="3">
+      <c r="Q137" s="1">
         <v>161</v>
       </c>
-      <c r="R137" s="3">
+      <c r="R137" s="1">
         <v>7</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="T137" s="3">
+      <c r="T137" s="1">
         <v>167</v>
       </c>
-      <c r="U137" s="3">
+      <c r="U137" s="1">
         <v>7</v>
       </c>
       <c r="V137" s="1" t="s">
@@ -12189,10 +12186,10 @@
       <c r="J138" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="1">
         <v>397</v>
       </c>
-      <c r="L138" s="3">
+      <c r="L138" s="1">
         <v>40</v>
       </c>
       <c r="M138" s="1" t="s">
@@ -12230,10 +12227,10 @@
       <c r="J139" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="1">
         <v>183</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139" s="1">
         <v>35</v>
       </c>
       <c r="M139" s="1" t="s">
@@ -12271,37 +12268,37 @@
       <c r="J140" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="1">
         <v>421</v>
       </c>
-      <c r="L140" s="3">
+      <c r="L140" s="1">
         <v>10</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="N140" s="3">
+      <c r="N140" s="1">
         <v>421</v>
       </c>
-      <c r="O140" s="3">
+      <c r="O140" s="1">
         <v>10</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="Q140" s="3">
+      <c r="Q140" s="1">
         <v>423</v>
       </c>
-      <c r="R140" s="3">
+      <c r="R140" s="1">
         <v>5</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="T140" s="3">
+      <c r="T140" s="1">
         <v>423</v>
       </c>
-      <c r="U140" s="3">
+      <c r="U140" s="1">
         <v>10</v>
       </c>
       <c r="V140" s="1" t="s">
@@ -12342,28 +12339,28 @@
       <c r="J141" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="1">
         <v>9022</v>
       </c>
-      <c r="L141" s="3">
+      <c r="L141" s="1">
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="N141" s="3">
+      <c r="N141" s="1">
         <v>9022</v>
       </c>
-      <c r="O141" s="3">
+      <c r="O141" s="1">
         <v>15</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="Q141" s="3">
+      <c r="Q141" s="1">
         <v>9022</v>
       </c>
-      <c r="R141" s="3">
+      <c r="R141" s="1">
         <v>2.5</v>
       </c>
       <c r="S141" s="1" t="s">
@@ -12401,10 +12398,10 @@
       <c r="J142" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="1">
         <v>308</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142" s="1">
         <v>35</v>
       </c>
       <c r="M142" s="1" t="s">
@@ -12442,10 +12439,10 @@
       <c r="J143" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="1">
         <v>424</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143" s="1">
         <v>40</v>
       </c>
       <c r="M143" s="1" t="s">
@@ -12492,19 +12489,19 @@
       <c r="J144" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="1">
         <v>424</v>
       </c>
-      <c r="L144" s="3">
+      <c r="L144" s="1">
         <v>10</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="N144" s="3">
+      <c r="N144" s="1">
         <v>433</v>
       </c>
-      <c r="O144" s="3">
+      <c r="O144" s="1">
         <v>26</v>
       </c>
       <c r="P144" s="1" t="s">
@@ -12542,19 +12539,19 @@
       <c r="J145" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="1">
         <v>412</v>
       </c>
-      <c r="L145" s="3">
+      <c r="L145" s="1">
         <v>7</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="N145" s="3">
+      <c r="N145" s="1">
         <v>9035</v>
       </c>
-      <c r="O145" s="3">
+      <c r="O145" s="1">
         <v>28</v>
       </c>
       <c r="P145" s="1" t="s">
@@ -12595,19 +12592,19 @@
       <c r="J146" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="1">
         <v>435</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L146" s="1">
         <v>25</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="N146" s="3">
+      <c r="N146" s="1">
         <v>245</v>
       </c>
-      <c r="O146" s="3">
+      <c r="O146" s="1">
         <v>13</v>
       </c>
       <c r="P146" s="1" t="s">
@@ -12648,10 +12645,10 @@
       <c r="J147" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="1">
         <v>211</v>
       </c>
-      <c r="L147" s="3">
+      <c r="L147" s="1">
         <v>35</v>
       </c>
       <c r="M147" s="1" t="s">
@@ -12689,46 +12686,46 @@
       <c r="J148" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="1">
         <v>245</v>
       </c>
-      <c r="L148" s="3">
+      <c r="L148" s="1">
         <v>5</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="N148" s="3">
+      <c r="N148" s="1">
         <v>245</v>
       </c>
-      <c r="O148" s="3">
+      <c r="O148" s="1">
         <v>10</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="Q148" s="3">
+      <c r="Q148" s="1">
         <v>245</v>
       </c>
-      <c r="R148" s="3">
+      <c r="R148" s="1">
         <v>20</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="T148" s="3">
+      <c r="T148" s="1">
         <v>245</v>
       </c>
-      <c r="U148" s="3">
+      <c r="U148" s="1">
         <v>3</v>
       </c>
       <c r="V148" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="W148" s="3">
+      <c r="W148" s="1">
         <v>245</v>
       </c>
-      <c r="X148" s="3">
+      <c r="X148" s="1">
         <v>5</v>
       </c>
       <c r="Y148" s="1" t="s">
@@ -12769,10 +12766,10 @@
       <c r="J149" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="1">
         <v>389</v>
       </c>
-      <c r="L149" s="3">
+      <c r="L149" s="1">
         <v>35</v>
       </c>
       <c r="M149" s="1" t="s">
@@ -12813,10 +12810,10 @@
       <c r="J150" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="1">
         <v>307</v>
       </c>
-      <c r="L150" s="3">
+      <c r="L150" s="1">
         <v>35</v>
       </c>
       <c r="M150" s="1" t="s">
@@ -12854,19 +12851,19 @@
       <c r="J151" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K151" s="3">
+      <c r="K151" s="1">
         <v>293</v>
       </c>
-      <c r="L151" s="3">
+      <c r="L151" s="1">
         <v>35</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="N151" s="3">
+      <c r="N151" s="1">
         <v>9038</v>
       </c>
-      <c r="O151" s="3">
+      <c r="O151" s="1">
         <v>7</v>
       </c>
       <c r="P151" s="1" t="s">
@@ -12904,19 +12901,19 @@
       <c r="J152" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="1">
         <v>421</v>
       </c>
-      <c r="L152" s="3">
+      <c r="L152" s="1">
         <v>8</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="N152" s="3">
+      <c r="N152" s="1">
         <v>423</v>
       </c>
-      <c r="O152" s="3">
+      <c r="O152" s="1">
         <v>32</v>
       </c>
       <c r="P152" s="1" t="s">
@@ -12954,19 +12951,19 @@
       <c r="J153" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K153" s="3">
+      <c r="K153" s="1">
         <v>9021</v>
       </c>
-      <c r="L153" s="3">
+      <c r="L153" s="1">
         <v>21</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="N153" s="3">
+      <c r="N153" s="1">
         <v>397</v>
       </c>
-      <c r="O153" s="3">
+      <c r="O153" s="1">
         <v>14</v>
       </c>
       <c r="P153" s="1" t="s">
@@ -13007,10 +13004,10 @@
       <c r="J154" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K154" s="1">
         <v>421</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154" s="1">
         <v>50</v>
       </c>
       <c r="M154" s="1" t="s">
@@ -13048,37 +13045,37 @@
       <c r="J155" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K155" s="1">
         <v>433</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L155" s="1">
         <v>10</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="N155" s="3">
+      <c r="N155" s="1">
         <v>424</v>
       </c>
-      <c r="O155" s="3">
+      <c r="O155" s="1">
         <v>20</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="Q155" s="3">
+      <c r="Q155" s="1">
         <v>245</v>
       </c>
-      <c r="R155" s="3">
+      <c r="R155" s="1">
         <v>5</v>
       </c>
       <c r="S155" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="T155" s="3">
+      <c r="T155" s="1">
         <v>249</v>
       </c>
-      <c r="U155" s="3">
+      <c r="U155" s="1">
         <v>1</v>
       </c>
       <c r="V155" s="1" t="s">
@@ -13119,46 +13116,46 @@
       <c r="J156" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K156" s="1">
         <v>434</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156" s="1">
         <v>7</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="N156" s="3">
+      <c r="N156" s="1">
         <v>389</v>
       </c>
-      <c r="O156" s="3">
+      <c r="O156" s="1">
         <v>12</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="Q156" s="3">
+      <c r="Q156" s="1">
         <v>406</v>
       </c>
-      <c r="R156" s="3">
+      <c r="R156" s="1">
         <v>7</v>
       </c>
       <c r="S156" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="T156" s="3">
+      <c r="T156" s="1">
         <v>287</v>
       </c>
-      <c r="U156" s="3">
+      <c r="U156" s="1">
         <v>8</v>
       </c>
       <c r="V156" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="W156" s="3">
+      <c r="W156" s="1">
         <v>412</v>
       </c>
-      <c r="X156" s="3">
+      <c r="X156" s="1">
         <v>4</v>
       </c>
       <c r="Y156" s="1" t="s">
@@ -13199,10 +13196,10 @@
       <c r="J157" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K157" s="1">
         <v>435</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L157" s="1">
         <v>36</v>
       </c>
       <c r="M157" s="1" t="s">
@@ -13240,10 +13237,10 @@
       <c r="J158" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K158" s="1">
         <v>426</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L158" s="1">
         <v>35</v>
       </c>
       <c r="M158" s="1" t="s">
@@ -13281,25 +13278,25 @@
       <c r="J159" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K159" s="1">
         <v>293</v>
       </c>
-      <c r="L159" s="3">
+      <c r="L159" s="1">
         <v>14</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="N159" s="3">
+      <c r="N159" s="1">
         <v>223</v>
       </c>
-      <c r="O159" s="3">
+      <c r="O159" s="1">
         <v>7</v>
       </c>
-      <c r="Q159" s="3">
+      <c r="Q159" s="1">
         <v>402</v>
       </c>
-      <c r="R159" s="3">
+      <c r="R159" s="1">
         <v>14</v>
       </c>
     </row>
@@ -13334,37 +13331,37 @@
       <c r="J160" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K160" s="1">
         <v>9021</v>
       </c>
-      <c r="L160" s="3">
+      <c r="L160" s="1">
         <v>14</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="N160" s="3">
+      <c r="N160" s="1">
         <v>397</v>
       </c>
-      <c r="O160" s="3">
+      <c r="O160" s="1">
         <v>7</v>
       </c>
       <c r="P160" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q160" s="3">
+      <c r="Q160" s="1">
         <v>327</v>
       </c>
-      <c r="R160" s="3">
+      <c r="R160" s="1">
         <v>3</v>
       </c>
       <c r="S160" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="T160" s="3">
+      <c r="T160" s="1">
         <v>9027</v>
       </c>
-      <c r="U160" s="3">
+      <c r="U160" s="1">
         <v>11</v>
       </c>
       <c r="V160" s="1" t="s">
@@ -13405,37 +13402,37 @@
       <c r="J161" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K161" s="3">
+      <c r="K161" s="1">
         <v>245</v>
       </c>
-      <c r="L161" s="3">
+      <c r="L161" s="1">
         <v>21</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="N161" s="3">
+      <c r="N161" s="1">
         <v>249</v>
       </c>
-      <c r="O161" s="3">
+      <c r="O161" s="1">
         <v>4</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="Q161" s="3">
+      <c r="Q161" s="1">
         <v>161</v>
       </c>
-      <c r="R161" s="3">
+      <c r="R161" s="1">
         <v>4</v>
       </c>
       <c r="S161" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="T161" s="3">
+      <c r="T161" s="1">
         <v>9022</v>
       </c>
-      <c r="U161" s="3">
+      <c r="U161" s="1">
         <v>6</v>
       </c>
       <c r="V161" s="1" t="s">
@@ -13473,19 +13470,19 @@
       <c r="J162" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="1">
         <v>402</v>
       </c>
-      <c r="L162" s="3">
+      <c r="L162" s="1">
         <v>25</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="N162" s="3">
+      <c r="N162" s="1">
         <v>223</v>
       </c>
-      <c r="O162" s="3">
+      <c r="O162" s="1">
         <v>10</v>
       </c>
       <c r="P162" s="1" t="s">
@@ -13541,7 +13538,7 @@
       <c r="S163" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="T163" s="3">
+      <c r="T163" s="1">
         <v>261</v>
       </c>
       <c r="V163" s="1" t="s">
@@ -13582,19 +13579,19 @@
       <c r="J164" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K164" s="1">
         <v>9021</v>
       </c>
-      <c r="L164" s="3">
+      <c r="L164" s="1">
         <v>7.5</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="N164" s="3">
+      <c r="N164" s="1">
         <v>340</v>
       </c>
-      <c r="O164" s="3">
+      <c r="O164" s="1">
         <v>31.27</v>
       </c>
       <c r="Z164" s="1" t="s">
@@ -13632,19 +13629,19 @@
       <c r="J165" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K165" s="3">
+      <c r="K165" s="1">
         <v>249</v>
       </c>
-      <c r="L165" s="3">
+      <c r="L165" s="1">
         <v>17</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="N165" s="3">
+      <c r="N165" s="1">
         <v>167</v>
       </c>
-      <c r="O165" s="3">
+      <c r="O165" s="1">
         <v>18</v>
       </c>
       <c r="P165" s="1" t="s">
@@ -13682,10 +13679,10 @@
       <c r="J166" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K166" s="1">
         <v>308</v>
       </c>
-      <c r="L166" s="3">
+      <c r="L166" s="1">
         <v>44</v>
       </c>
       <c r="M166" s="1" t="s">
@@ -13723,10 +13720,10 @@
       <c r="J167" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="K167" s="3">
+      <c r="K167" s="1">
         <v>421</v>
       </c>
-      <c r="L167" s="3">
+      <c r="L167" s="1">
         <v>37</v>
       </c>
       <c r="M167" s="1" t="s">
@@ -13767,28 +13764,28 @@
       <c r="J168" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K168" s="1">
         <v>421</v>
       </c>
-      <c r="L168" s="3">
+      <c r="L168" s="1">
         <v>14</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="N168" s="3">
+      <c r="N168" s="1">
         <v>161</v>
       </c>
-      <c r="O168" s="3">
+      <c r="O168" s="1">
         <v>21</v>
       </c>
       <c r="P168" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="Q168" s="3">
+      <c r="Q168" s="1">
         <v>435</v>
       </c>
-      <c r="R168" s="3">
+      <c r="R168" s="1">
         <v>3</v>
       </c>
       <c r="S168" s="1" t="s">
@@ -13826,28 +13823,28 @@
       <c r="J169" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="K169" s="3">
+      <c r="K169" s="1">
         <v>245</v>
       </c>
-      <c r="L169" s="3">
+      <c r="L169" s="1">
         <v>21</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="N169" s="3">
+      <c r="N169" s="1">
         <v>421</v>
       </c>
-      <c r="O169" s="3">
+      <c r="O169" s="1">
         <v>7</v>
       </c>
       <c r="P169" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="Q169" s="3">
+      <c r="Q169" s="1">
         <v>426</v>
       </c>
-      <c r="R169" s="3">
+      <c r="R169" s="1">
         <v>7</v>
       </c>
       <c r="S169" s="1" t="s">
@@ -13885,37 +13882,37 @@
       <c r="J170" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="K170" s="3">
+      <c r="K170" s="1">
         <v>357</v>
       </c>
-      <c r="L170" s="3">
+      <c r="L170" s="1">
         <v>15</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="N170" s="3">
+      <c r="N170" s="1">
         <v>161</v>
       </c>
-      <c r="O170" s="3">
+      <c r="O170" s="1">
         <v>3</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="Q170" s="3">
+      <c r="Q170" s="1">
         <v>424</v>
       </c>
-      <c r="R170" s="3">
+      <c r="R170" s="1">
         <v>10</v>
       </c>
       <c r="S170" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="T170" s="3">
+      <c r="T170" s="1">
         <v>407</v>
       </c>
-      <c r="U170" s="3">
+      <c r="U170" s="1">
         <v>20</v>
       </c>
       <c r="V170" s="1" t="s">
@@ -13953,10 +13950,10 @@
       <c r="J171" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K171" s="3">
+      <c r="K171" s="1">
         <v>5009</v>
       </c>
-      <c r="L171" s="3">
+      <c r="L171" s="1">
         <v>35</v>
       </c>
       <c r="M171" s="1" t="s">
@@ -13997,28 +13994,28 @@
       <c r="J172" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K172" s="1">
         <v>359</v>
       </c>
-      <c r="L172" s="3">
+      <c r="L172" s="1">
         <v>7</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="N172" s="3">
+      <c r="N172" s="1">
         <v>327</v>
       </c>
-      <c r="O172" s="3">
+      <c r="O172" s="1">
         <v>7</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="Q172" s="3">
+      <c r="Q172" s="1">
         <v>5009</v>
       </c>
-      <c r="R172" s="3">
+      <c r="R172" s="1">
         <v>21</v>
       </c>
       <c r="S172" s="1" t="s">
@@ -14059,46 +14056,46 @@
       <c r="J173" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K173" s="1">
         <v>371</v>
       </c>
-      <c r="L173" s="3">
+      <c r="L173" s="1">
         <v>4</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="N173" s="3">
+      <c r="N173" s="1">
         <v>333</v>
       </c>
-      <c r="O173" s="3">
+      <c r="O173" s="1">
         <v>3</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="Q173" s="3">
+      <c r="Q173" s="1">
         <v>392</v>
       </c>
-      <c r="R173" s="3">
+      <c r="R173" s="1">
         <v>3</v>
       </c>
       <c r="S173" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="T173" s="3">
+      <c r="T173" s="1">
         <v>9035</v>
       </c>
-      <c r="U173" s="3">
+      <c r="U173" s="1">
         <v>22</v>
       </c>
       <c r="V173" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="W173" s="3">
+      <c r="W173" s="1">
         <v>393</v>
       </c>
-      <c r="X173" s="3">
+      <c r="X173" s="1">
         <v>3</v>
       </c>
       <c r="Y173" s="1" t="s">
@@ -14139,37 +14136,37 @@
       <c r="J174" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K174" s="1">
         <v>212</v>
       </c>
-      <c r="L174" s="3">
+      <c r="L174" s="1">
         <v>5</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="N174" s="3">
+      <c r="N174" s="1">
         <v>245</v>
       </c>
-      <c r="O174" s="3">
+      <c r="O174" s="1">
         <v>14</v>
       </c>
       <c r="P174" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="Q174" s="3">
+      <c r="Q174" s="1">
         <v>167</v>
       </c>
-      <c r="R174" s="3">
+      <c r="R174" s="1">
         <v>14</v>
       </c>
       <c r="S174" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="T174" s="3">
+      <c r="T174" s="1">
         <v>196</v>
       </c>
-      <c r="U174" s="3">
+      <c r="U174" s="1">
         <v>5</v>
       </c>
       <c r="V174" s="1" t="s">
@@ -14207,46 +14204,46 @@
       <c r="J175" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K175" s="3">
+      <c r="K175" s="1">
         <v>9035</v>
       </c>
-      <c r="L175" s="3">
+      <c r="L175" s="1">
         <v>14</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="N175" s="3">
+      <c r="N175" s="1">
         <v>106</v>
       </c>
-      <c r="O175" s="3">
+      <c r="O175" s="1">
         <v>4</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="Q175" s="3">
+      <c r="Q175" s="1">
         <v>382</v>
       </c>
-      <c r="R175" s="3">
+      <c r="R175" s="1">
         <v>7</v>
       </c>
       <c r="S175" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="T175" s="3">
+      <c r="T175" s="1">
         <v>9035</v>
       </c>
-      <c r="U175" s="3">
+      <c r="U175" s="1">
         <v>7</v>
       </c>
       <c r="V175" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="W175" s="3">
+      <c r="W175" s="1">
         <v>9035</v>
       </c>
-      <c r="X175" s="3">
+      <c r="X175" s="1">
         <v>3</v>
       </c>
       <c r="Y175" s="1" t="s">
@@ -14287,37 +14284,37 @@
       <c r="J176" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K176" s="3">
+      <c r="K176" s="1">
         <v>430</v>
       </c>
-      <c r="L176" s="3">
+      <c r="L176" s="1">
         <v>15</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="N176" s="3">
+      <c r="N176" s="1">
         <v>429</v>
       </c>
-      <c r="O176" s="3">
+      <c r="O176" s="1">
         <v>15</v>
       </c>
       <c r="P176" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="Q176" s="3">
+      <c r="Q176" s="1">
         <v>431</v>
       </c>
-      <c r="R176" s="3">
+      <c r="R176" s="1">
         <v>3</v>
       </c>
       <c r="S176" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="T176" s="3">
+      <c r="T176" s="1">
         <v>412</v>
       </c>
-      <c r="U176" s="3">
+      <c r="U176" s="1">
         <v>8</v>
       </c>
       <c r="V176" s="1" t="s">
@@ -14355,10 +14352,10 @@
       <c r="J177" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K177" s="3">
+      <c r="K177" s="1">
         <v>9035</v>
       </c>
-      <c r="L177" s="3">
+      <c r="L177" s="1">
         <v>35</v>
       </c>
       <c r="M177" s="1" t="s">
@@ -14399,37 +14396,37 @@
       <c r="J178" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K178" s="3">
+      <c r="K178" s="1">
         <v>359</v>
       </c>
-      <c r="L178" s="3">
+      <c r="L178" s="1">
         <v>7</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="N178" s="3">
+      <c r="N178" s="1">
         <v>425</v>
       </c>
-      <c r="O178" s="3">
+      <c r="O178" s="1">
         <v>7</v>
       </c>
       <c r="P178" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="Q178" s="3">
+      <c r="Q178" s="1">
         <v>377</v>
       </c>
-      <c r="R178" s="3">
+      <c r="R178" s="1">
         <v>7</v>
       </c>
       <c r="S178" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="T178" s="3">
+      <c r="T178" s="1">
         <v>9035</v>
       </c>
-      <c r="U178" s="3">
+      <c r="U178" s="1">
         <v>7</v>
       </c>
       <c r="V178" s="1" t="s">
@@ -14470,10 +14467,10 @@
       <c r="J179" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K179" s="3">
+      <c r="K179" s="1">
         <v>245</v>
       </c>
-      <c r="L179" s="3">
+      <c r="L179" s="1">
         <v>35</v>
       </c>
       <c r="M179" s="1" t="s">
@@ -14511,28 +14508,28 @@
       <c r="J180" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K180" s="3">
+      <c r="K180" s="1">
         <v>358</v>
       </c>
-      <c r="L180" s="3">
+      <c r="L180" s="1">
         <v>14</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="N180" s="3">
+      <c r="N180" s="1">
         <v>389</v>
       </c>
-      <c r="O180" s="3">
+      <c r="O180" s="1">
         <v>17</v>
       </c>
       <c r="P180" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="Q180" s="3">
+      <c r="Q180" s="1">
         <v>241</v>
       </c>
-      <c r="R180" s="3">
+      <c r="R180" s="1">
         <v>4</v>
       </c>
       <c r="S180" s="1" t="s">
@@ -14573,19 +14570,19 @@
       <c r="J181" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K181" s="3">
+      <c r="K181" s="1">
         <v>300</v>
       </c>
-      <c r="L181" s="3">
+      <c r="L181" s="1">
         <v>1</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="N181" s="3">
+      <c r="N181" s="1">
         <v>9035</v>
       </c>
-      <c r="O181" s="3">
+      <c r="O181" s="1">
         <v>35</v>
       </c>
       <c r="P181" s="1" t="s">
@@ -14626,10 +14623,10 @@
       <c r="J182" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="K182" s="3">
+      <c r="K182" s="1">
         <v>293</v>
       </c>
-      <c r="L182" s="3">
+      <c r="L182" s="1">
         <v>49</v>
       </c>
       <c r="M182" s="1" t="s">
@@ -14667,46 +14664,46 @@
       <c r="J183" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="K183" s="3">
+      <c r="K183" s="1">
         <v>9035</v>
       </c>
-      <c r="L183" s="3">
+      <c r="L183" s="1">
         <v>10</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="N183" s="3">
+      <c r="N183" s="1">
         <v>9035</v>
       </c>
-      <c r="O183" s="3">
+      <c r="O183" s="1">
         <v>3</v>
       </c>
       <c r="P183" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="Q183" s="3">
+      <c r="Q183" s="1">
         <v>9035</v>
       </c>
-      <c r="R183" s="3">
+      <c r="R183" s="1">
         <v>15</v>
       </c>
       <c r="S183" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="T183" s="3">
+      <c r="T183" s="1">
         <v>9035</v>
       </c>
-      <c r="U183" s="3">
+      <c r="U183" s="1">
         <v>2</v>
       </c>
       <c r="V183" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="W183" s="3">
+      <c r="W183" s="1">
         <v>903</v>
       </c>
-      <c r="X183" s="3">
+      <c r="X183" s="1">
         <v>5</v>
       </c>
       <c r="Y183" s="1" t="s">
@@ -14747,16 +14744,16 @@
       <c r="J184" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184" s="1">
         <v>293</v>
       </c>
-      <c r="L184" s="3">
+      <c r="L184" s="1">
         <v>21</v>
       </c>
-      <c r="N184" s="3">
+      <c r="N184" s="1">
         <v>402</v>
       </c>
-      <c r="O184" s="3">
+      <c r="O184" s="1">
         <v>14</v>
       </c>
     </row>
@@ -14791,10 +14788,10 @@
       <c r="J185" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K185" s="1">
         <v>421</v>
       </c>
-      <c r="L185" s="3">
+      <c r="L185" s="1">
         <v>35</v>
       </c>
       <c r="M185" s="1" t="s">
@@ -14835,10 +14832,10 @@
       <c r="J186" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K186" s="1">
         <v>167</v>
       </c>
-      <c r="L186" s="3">
+      <c r="L186" s="1">
         <v>15</v>
       </c>
       <c r="M186" s="1" t="s">
@@ -14876,10 +14873,10 @@
       <c r="J187" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="K187" s="3">
+      <c r="K187" s="1">
         <v>402</v>
       </c>
-      <c r="L187" s="3">
+      <c r="L187" s="1">
         <v>35</v>
       </c>
       <c r="M187" s="1" t="s">
@@ -14917,19 +14914,19 @@
       <c r="J188" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="K188" s="3">
+      <c r="K188" s="1">
         <v>293</v>
       </c>
-      <c r="L188" s="3">
+      <c r="L188" s="1">
         <v>21</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="N188" s="3">
+      <c r="N188" s="1">
         <v>9038</v>
       </c>
-      <c r="O188" s="3">
+      <c r="O188" s="1">
         <v>14</v>
       </c>
       <c r="P188" s="1" t="s">
@@ -14967,28 +14964,28 @@
       <c r="J189" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="K189" s="3">
+      <c r="K189" s="1">
         <v>167</v>
       </c>
-      <c r="L189" s="3">
+      <c r="L189" s="1">
         <v>4</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="N189" s="3">
+      <c r="N189" s="1">
         <v>9022</v>
       </c>
-      <c r="O189" s="3">
+      <c r="O189" s="1">
         <v>30</v>
       </c>
       <c r="P189" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="Q189" s="3">
+      <c r="Q189" s="1">
         <v>211</v>
       </c>
-      <c r="R189" s="3">
+      <c r="R189" s="1">
         <v>1</v>
       </c>
       <c r="S189" s="1" t="s">
@@ -15026,10 +15023,10 @@
       <c r="J190" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K190" s="3">
+      <c r="K190" s="1">
         <v>9037</v>
       </c>
-      <c r="L190" s="3">
+      <c r="L190" s="1">
         <v>90</v>
       </c>
       <c r="M190" s="1" t="s">
@@ -15067,10 +15064,10 @@
       <c r="J191" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K191" s="3">
+      <c r="K191" s="1">
         <v>245</v>
       </c>
-      <c r="L191" s="3">
+      <c r="L191" s="1">
         <v>44</v>
       </c>
       <c r="M191" s="1" t="s">
@@ -15108,37 +15105,37 @@
       <c r="J192" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K192" s="3">
+      <c r="K192" s="1">
         <v>161</v>
       </c>
-      <c r="L192" s="3">
+      <c r="L192" s="1">
         <v>18</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="N192" s="3">
+      <c r="N192" s="1">
         <v>245</v>
       </c>
-      <c r="O192" s="3">
+      <c r="O192" s="1">
         <v>12</v>
       </c>
       <c r="P192" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="Q192" s="3">
+      <c r="Q192" s="1">
         <v>421</v>
       </c>
-      <c r="R192" s="3">
+      <c r="R192" s="1">
         <v>2</v>
       </c>
       <c r="S192" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="T192" s="3">
+      <c r="T192" s="1">
         <v>434</v>
       </c>
-      <c r="U192" s="3">
+      <c r="U192" s="1">
         <v>6</v>
       </c>
       <c r="V192" s="1" t="s">
@@ -15179,10 +15176,10 @@
       <c r="J193" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K193" s="3">
+      <c r="K193" s="1">
         <v>293</v>
       </c>
-      <c r="L193" s="3">
+      <c r="L193" s="1">
         <v>45</v>
       </c>
       <c r="M193" s="1" t="s">
@@ -15220,19 +15217,19 @@
       <c r="J194" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K194" s="3">
+      <c r="K194" s="1">
         <v>167</v>
       </c>
-      <c r="L194" s="3">
+      <c r="L194" s="1">
         <v>30</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="N194" s="3">
+      <c r="N194" s="1">
         <v>167</v>
       </c>
-      <c r="O194" s="3">
+      <c r="O194" s="1">
         <v>6</v>
       </c>
       <c r="P194" s="1" t="s">
@@ -15270,19 +15267,19 @@
       <c r="J195" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K195" s="3">
+      <c r="K195" s="1">
         <v>307</v>
       </c>
-      <c r="L195" s="3">
+      <c r="L195" s="1">
         <v>28</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="N195" s="3">
+      <c r="N195" s="1">
         <v>307</v>
       </c>
-      <c r="O195" s="3">
+      <c r="O195" s="1">
         <v>7</v>
       </c>
       <c r="P195" s="1" t="s">
@@ -15320,28 +15317,28 @@
       <c r="J196" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K196" s="3">
+      <c r="K196" s="1">
         <v>435</v>
       </c>
-      <c r="L196" s="3">
+      <c r="L196" s="1">
         <v>20</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="N196" s="3">
+      <c r="N196" s="1">
         <v>421</v>
       </c>
-      <c r="O196" s="3">
+      <c r="O196" s="1">
         <v>8</v>
       </c>
       <c r="P196" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="Q196" s="3">
+      <c r="Q196" s="1">
         <v>245</v>
       </c>
-      <c r="R196" s="3">
+      <c r="R196" s="1">
         <v>7</v>
       </c>
       <c r="S196" s="1" t="s">
@@ -15382,19 +15379,19 @@
       <c r="J197" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K197" s="3">
+      <c r="K197" s="1">
         <v>435</v>
       </c>
-      <c r="L197" s="3">
+      <c r="L197" s="1">
         <v>22</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="N197" s="3">
+      <c r="N197" s="1">
         <v>278</v>
       </c>
-      <c r="O197" s="3">
+      <c r="O197" s="1">
         <v>18</v>
       </c>
       <c r="P197" s="1" t="s">
@@ -15432,10 +15429,10 @@
       <c r="J198" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K198" s="3">
+      <c r="K198" s="1">
         <v>397</v>
       </c>
-      <c r="L198" s="3">
+      <c r="L198" s="1">
         <v>35</v>
       </c>
       <c r="M198" s="1" t="s">
@@ -15473,28 +15470,28 @@
       <c r="J199" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K199" s="3">
+      <c r="K199" s="1">
         <v>421</v>
       </c>
-      <c r="L199" s="3">
+      <c r="L199" s="1">
         <v>21</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="N199" s="3">
+      <c r="N199" s="1">
         <v>402</v>
       </c>
-      <c r="O199" s="3">
+      <c r="O199" s="1">
         <v>12</v>
       </c>
       <c r="P199" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="Q199" s="3">
+      <c r="Q199" s="1">
         <v>435</v>
       </c>
-      <c r="R199" s="3">
+      <c r="R199" s="1">
         <v>2</v>
       </c>
       <c r="S199" s="1" t="s">
@@ -15532,46 +15529,46 @@
       <c r="J200" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K200" s="3">
+      <c r="K200" s="1">
         <v>421</v>
       </c>
-      <c r="L200" s="3">
+      <c r="L200" s="1">
         <v>10</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="N200" s="3">
+      <c r="N200" s="1">
         <v>421</v>
       </c>
-      <c r="O200" s="3">
+      <c r="O200" s="1">
         <v>5</v>
       </c>
       <c r="P200" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="Q200" s="3">
+      <c r="Q200" s="1">
         <v>421</v>
       </c>
-      <c r="R200" s="3">
+      <c r="R200" s="1">
         <v>5</v>
       </c>
       <c r="S200" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="T200" s="3">
+      <c r="T200" s="1">
         <v>423</v>
       </c>
-      <c r="U200" s="3">
+      <c r="U200" s="1">
         <v>5</v>
       </c>
       <c r="V200" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="W200" s="3">
+      <c r="W200" s="1">
         <v>421</v>
       </c>
-      <c r="X200" s="3">
+      <c r="X200" s="1">
         <v>20</v>
       </c>
       <c r="Y200" s="1" t="s">
@@ -15609,10 +15606,10 @@
       <c r="J201" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K201" s="3">
+      <c r="K201" s="1">
         <v>421</v>
       </c>
-      <c r="L201" s="3">
+      <c r="L201" s="1">
         <v>35</v>
       </c>
       <c r="M201" s="1" t="s">
@@ -15653,10 +15650,10 @@
       <c r="J202" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K202" s="3">
+      <c r="K202" s="1">
         <v>293</v>
       </c>
-      <c r="L202" s="3">
+      <c r="L202" s="1">
         <v>37</v>
       </c>
       <c r="M202" s="1" t="s">
@@ -15697,28 +15694,28 @@
       <c r="J203" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K203" s="3">
+      <c r="K203" s="1">
         <v>389</v>
       </c>
-      <c r="L203" s="3">
+      <c r="L203" s="1">
         <v>10</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="N203" s="3">
+      <c r="N203" s="1">
         <v>435</v>
       </c>
-      <c r="O203" s="3">
+      <c r="O203" s="1">
         <v>15</v>
       </c>
       <c r="P203" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="Q203" s="3">
+      <c r="Q203" s="1">
         <v>271</v>
       </c>
-      <c r="R203" s="3">
+      <c r="R203" s="1">
         <v>12</v>
       </c>
       <c r="S203" s="1" t="s">
@@ -15756,19 +15753,19 @@
       <c r="J204" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K204" s="1">
         <v>423</v>
       </c>
-      <c r="L204" s="3">
+      <c r="L204" s="1">
         <v>35</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="N204" s="3">
+      <c r="N204" s="1">
         <v>421</v>
       </c>
-      <c r="O204" s="3">
+      <c r="O204" s="1">
         <v>4</v>
       </c>
       <c r="P204" s="1" t="s">
@@ -15806,10 +15803,10 @@
       <c r="J205" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K205" s="3">
+      <c r="K205" s="1">
         <v>249</v>
       </c>
-      <c r="L205" s="3">
+      <c r="L205" s="1">
         <v>35</v>
       </c>
       <c r="M205" s="1" t="s">
@@ -15847,19 +15844,19 @@
       <c r="J206" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K206" s="3">
+      <c r="K206" s="1">
         <v>161</v>
       </c>
-      <c r="L206" s="3">
+      <c r="L206" s="1">
         <v>25</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="N206" s="3">
+      <c r="N206" s="1">
         <v>168</v>
       </c>
-      <c r="O206" s="3">
+      <c r="O206" s="1">
         <v>11</v>
       </c>
       <c r="P206" s="1" t="s">
@@ -15897,19 +15894,19 @@
       <c r="J207" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K207" s="3">
+      <c r="K207" s="1">
         <v>167</v>
       </c>
-      <c r="L207" s="3">
+      <c r="L207" s="1">
         <v>18</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="N207" s="3">
+      <c r="N207" s="1">
         <v>426</v>
       </c>
-      <c r="O207" s="3">
+      <c r="O207" s="1">
         <v>17</v>
       </c>
       <c r="P207" s="1" t="s">
@@ -15953,19 +15950,19 @@
       <c r="J208" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K208" s="3">
+      <c r="K208" s="1">
         <v>424</v>
       </c>
-      <c r="L208" s="3">
+      <c r="L208" s="1">
         <v>3</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="N208" s="3">
+      <c r="N208" s="1">
         <v>433</v>
       </c>
-      <c r="O208" s="3">
+      <c r="O208" s="1">
         <v>32</v>
       </c>
       <c r="P208" s="1" t="s">
@@ -16003,10 +16000,10 @@
       <c r="J209" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K209" s="3">
+      <c r="K209" s="1">
         <v>183</v>
       </c>
-      <c r="L209" s="3">
+      <c r="L209" s="1">
         <v>35</v>
       </c>
       <c r="M209" s="1" t="s">
@@ -16044,19 +16041,19 @@
       <c r="J210" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K210" s="3">
+      <c r="K210" s="1">
         <v>212</v>
       </c>
-      <c r="L210" s="3">
+      <c r="L210" s="1">
         <v>7</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="N210" s="3">
+      <c r="N210" s="1">
         <v>424</v>
       </c>
-      <c r="O210" s="3">
+      <c r="O210" s="1">
         <v>28</v>
       </c>
       <c r="P210" s="1" t="s">
@@ -16094,19 +16091,19 @@
       <c r="J211" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K211" s="3">
+      <c r="K211" s="1">
         <v>161</v>
       </c>
-      <c r="L211" s="3">
+      <c r="L211" s="1">
         <v>28</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="N211" s="3">
+      <c r="N211" s="1">
         <v>249</v>
       </c>
-      <c r="O211" s="3">
+      <c r="O211" s="1">
         <v>7</v>
       </c>
       <c r="P211" s="1" t="s">
@@ -16147,19 +16144,19 @@
       <c r="J212" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K212" s="3">
+      <c r="K212" s="1">
         <v>308</v>
       </c>
-      <c r="L212" s="3">
+      <c r="L212" s="1">
         <v>21</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="N212" s="3">
+      <c r="N212" s="1">
         <v>389</v>
       </c>
-      <c r="O212" s="3">
+      <c r="O212" s="1">
         <v>14</v>
       </c>
       <c r="P212" s="1" t="s">
@@ -16200,46 +16197,46 @@
       <c r="J213" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K213" s="3">
+      <c r="K213" s="1">
         <v>212</v>
       </c>
-      <c r="L213" s="3">
+      <c r="L213" s="1">
         <v>12</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="N213" s="3">
+      <c r="N213" s="1">
         <v>212</v>
       </c>
-      <c r="O213" s="3">
+      <c r="O213" s="1">
         <v>11</v>
       </c>
       <c r="P213" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="Q213" s="3">
+      <c r="Q213" s="1">
         <v>212</v>
       </c>
-      <c r="R213" s="3">
+      <c r="R213" s="1">
         <v>10</v>
       </c>
       <c r="S213" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="T213" s="3">
+      <c r="T213" s="1">
         <v>212</v>
       </c>
-      <c r="U213" s="3">
+      <c r="U213" s="1">
         <v>10</v>
       </c>
       <c r="V213" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="W213" s="3">
+      <c r="W213" s="1">
         <v>212</v>
       </c>
-      <c r="X213" s="3">
+      <c r="X213" s="1">
         <v>11</v>
       </c>
       <c r="Y213" s="1" t="s">
@@ -16280,10 +16277,10 @@
       <c r="J214" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K214" s="3">
+      <c r="K214" s="1">
         <v>421</v>
       </c>
-      <c r="L214" s="3">
+      <c r="L214" s="1">
         <v>40</v>
       </c>
       <c r="M214" s="1" t="s">
@@ -16321,19 +16318,19 @@
       <c r="J215" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K215" s="3">
+      <c r="K215" s="1">
         <v>433</v>
       </c>
-      <c r="L215" s="3">
+      <c r="L215" s="1">
         <v>21</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="N215" s="3">
+      <c r="N215" s="1">
         <v>245</v>
       </c>
-      <c r="O215" s="3">
+      <c r="O215" s="1">
         <v>14</v>
       </c>
       <c r="P215" s="1" t="s">
@@ -16371,37 +16368,37 @@
       <c r="J216" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K216" s="3">
+      <c r="K216" s="1">
         <v>212</v>
       </c>
-      <c r="L216" s="3">
+      <c r="L216" s="1">
         <v>10</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="N216" s="3">
+      <c r="N216" s="1">
         <v>245</v>
       </c>
-      <c r="O216" s="3">
+      <c r="O216" s="1">
         <v>10</v>
       </c>
       <c r="P216" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="Q216" s="3">
+      <c r="Q216" s="1">
         <v>245</v>
       </c>
-      <c r="R216" s="3">
+      <c r="R216" s="1">
         <v>10</v>
       </c>
       <c r="S216" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="T216" s="3">
+      <c r="T216" s="1">
         <v>245</v>
       </c>
-      <c r="U216" s="3">
+      <c r="U216" s="1">
         <v>5</v>
       </c>
       <c r="V216" s="1" t="s">
@@ -16445,28 +16442,28 @@
       <c r="J217" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K217" s="3">
+      <c r="K217" s="1">
         <v>245</v>
       </c>
-      <c r="L217" s="3">
+      <c r="L217" s="1">
         <v>18</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="N217" s="3">
+      <c r="N217" s="1">
         <v>422</v>
       </c>
-      <c r="O217" s="3">
+      <c r="O217" s="1">
         <v>14</v>
       </c>
       <c r="P217" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="Q217" s="3">
+      <c r="Q217" s="1">
         <v>9022</v>
       </c>
-      <c r="R217" s="3">
+      <c r="R217" s="1">
         <v>3</v>
       </c>
       <c r="S217" s="1" t="s">
@@ -16504,10 +16501,10 @@
       <c r="J218" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K218" s="3">
+      <c r="K218" s="1">
         <v>426</v>
       </c>
-      <c r="L218" s="3">
+      <c r="L218" s="1">
         <v>35</v>
       </c>
       <c r="M218" s="1" t="s">
@@ -16545,46 +16542,46 @@
       <c r="J219" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K219" s="3">
+      <c r="K219" s="1">
         <v>406</v>
       </c>
-      <c r="L219" s="3">
+      <c r="L219" s="1">
         <v>10</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="N219" s="3">
+      <c r="N219" s="1">
         <v>412</v>
       </c>
-      <c r="O219" s="3">
+      <c r="O219" s="1">
         <v>4</v>
       </c>
       <c r="P219" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="Q219" s="3">
+      <c r="Q219" s="1">
         <v>434</v>
       </c>
-      <c r="R219" s="3">
+      <c r="R219" s="1">
         <v>5</v>
       </c>
       <c r="S219" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="T219" s="3">
+      <c r="T219" s="1">
         <v>389</v>
       </c>
-      <c r="U219" s="3">
+      <c r="U219" s="1">
         <v>10</v>
       </c>
       <c r="V219" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="W219" s="3">
+      <c r="W219" s="1">
         <v>422</v>
       </c>
-      <c r="X219" s="3">
+      <c r="X219" s="1">
         <v>7</v>
       </c>
       <c r="Y219" s="1" t="s">
@@ -16625,19 +16622,19 @@
       <c r="J220" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K220" s="3">
+      <c r="K220" s="1">
         <v>9022</v>
       </c>
-      <c r="L220" s="3">
+      <c r="L220" s="1">
         <v>10</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="N220" s="3">
+      <c r="N220" s="1">
         <v>9022</v>
       </c>
-      <c r="O220" s="3">
+      <c r="O220" s="1">
         <v>25</v>
       </c>
       <c r="P220" s="1" t="s">
@@ -16675,37 +16672,37 @@
       <c r="J221" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K221" s="3">
+      <c r="K221" s="1">
         <v>245</v>
       </c>
-      <c r="L221" s="3">
+      <c r="L221" s="1">
         <v>14</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="N221" s="3">
+      <c r="N221" s="1">
         <v>249</v>
       </c>
-      <c r="O221" s="3">
+      <c r="O221" s="1">
         <v>7</v>
       </c>
       <c r="P221" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="Q221" s="3">
+      <c r="Q221" s="1">
         <v>161</v>
       </c>
-      <c r="R221" s="3">
+      <c r="R221" s="1">
         <v>7</v>
       </c>
       <c r="S221" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="T221" s="3">
+      <c r="T221" s="1">
         <v>9022</v>
       </c>
-      <c r="U221" s="3">
+      <c r="U221" s="1">
         <v>7</v>
       </c>
       <c r="V221" s="1" t="s">
@@ -16743,19 +16740,19 @@
       <c r="J222" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K222" s="3">
+      <c r="K222" s="1">
         <v>293</v>
       </c>
-      <c r="L222" s="3">
+      <c r="L222" s="1">
         <v>7</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="N222" s="3">
+      <c r="N222" s="1">
         <v>308</v>
       </c>
-      <c r="O222" s="3">
+      <c r="O222" s="1">
         <v>28</v>
       </c>
       <c r="P222" s="1" t="s">
@@ -16796,46 +16793,46 @@
       <c r="J223" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K223" s="3">
+      <c r="K223" s="1">
         <v>356</v>
       </c>
-      <c r="L223" s="3">
+      <c r="L223" s="1">
         <v>2</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="N223" s="3">
+      <c r="N223" s="1">
         <v>9021</v>
       </c>
-      <c r="O223" s="3">
+      <c r="O223" s="1">
         <v>6</v>
       </c>
       <c r="P223" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="Q223" s="3">
+      <c r="Q223" s="1">
         <v>167</v>
       </c>
-      <c r="R223" s="3">
+      <c r="R223" s="1">
         <v>2</v>
       </c>
       <c r="S223" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="T223" s="3">
+      <c r="T223" s="1">
         <v>411</v>
       </c>
-      <c r="U223" s="3">
+      <c r="U223" s="1">
         <v>1</v>
       </c>
       <c r="V223" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="W223" s="3">
+      <c r="W223" s="1">
         <v>9027</v>
       </c>
-      <c r="X223" s="3">
+      <c r="X223" s="1">
         <v>24</v>
       </c>
       <c r="Y223" s="1" t="s">
@@ -16876,19 +16873,19 @@
       <c r="J224" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K224" s="3">
+      <c r="K224" s="1">
         <v>245</v>
       </c>
-      <c r="L224" s="3">
+      <c r="L224" s="1">
         <v>28</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="N224" s="3">
+      <c r="N224" s="1">
         <v>433</v>
       </c>
-      <c r="O224" s="3">
+      <c r="O224" s="1">
         <v>7</v>
       </c>
       <c r="P224" s="1" t="s">
@@ -16926,28 +16923,28 @@
       <c r="J225" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="K225" s="3">
+      <c r="K225" s="1">
         <v>271</v>
       </c>
-      <c r="L225" s="3">
+      <c r="L225" s="1">
         <v>24</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="N225" s="3">
+      <c r="N225" s="1">
         <v>424</v>
       </c>
-      <c r="O225" s="3">
+      <c r="O225" s="1">
         <v>21</v>
       </c>
       <c r="P225" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="Q225" s="3">
+      <c r="Q225" s="1">
         <v>9027</v>
       </c>
-      <c r="R225" s="3">
+      <c r="R225" s="1">
         <v>1</v>
       </c>
       <c r="S225" s="1" t="s">
@@ -16988,19 +16985,19 @@
       <c r="J226" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K226" s="3">
+      <c r="K226" s="1">
         <v>245</v>
       </c>
-      <c r="L226" s="3">
+      <c r="L226" s="1">
         <v>35</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="N226" s="3">
+      <c r="N226" s="1">
         <v>183</v>
       </c>
-      <c r="O226" s="3">
+      <c r="O226" s="1">
         <v>10</v>
       </c>
       <c r="P226" s="1" t="s">
@@ -17038,10 +17035,10 @@
       <c r="J227" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K227" s="3">
+      <c r="K227" s="1">
         <v>245</v>
       </c>
-      <c r="L227" s="3">
+      <c r="L227" s="1">
         <v>38</v>
       </c>
       <c r="M227" s="1" t="s">
@@ -17082,10 +17079,10 @@
       <c r="J228" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K228" s="3">
+      <c r="K228" s="1">
         <v>245</v>
       </c>
-      <c r="L228" s="3">
+      <c r="L228" s="1">
         <v>40</v>
       </c>
       <c r="M228" s="1" t="s">
@@ -17126,10 +17123,10 @@
       <c r="J229" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K229" s="3">
+      <c r="K229" s="1">
         <v>211</v>
       </c>
-      <c r="L229" s="3">
+      <c r="L229" s="1">
         <v>28</v>
       </c>
       <c r="M229" s="1" t="s">
@@ -17167,19 +17164,19 @@
       <c r="J230" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K230" s="3">
+      <c r="K230" s="1">
         <v>359</v>
       </c>
-      <c r="L230" s="3">
+      <c r="L230" s="1">
         <v>17</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="N230" s="3">
+      <c r="N230" s="1">
         <v>359</v>
       </c>
-      <c r="O230" s="3">
+      <c r="O230" s="1">
         <v>18</v>
       </c>
       <c r="P230" s="1" t="s">
@@ -17217,37 +17214,37 @@
       <c r="J231" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K231" s="3">
+      <c r="K231" s="1">
         <v>389</v>
       </c>
-      <c r="L231" s="3">
+      <c r="L231" s="1">
         <v>12</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="N231" s="3">
+      <c r="N231" s="1">
         <v>358</v>
       </c>
-      <c r="O231" s="3">
+      <c r="O231" s="1">
         <v>19</v>
       </c>
       <c r="P231" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="Q231" s="3">
+      <c r="Q231" s="1">
         <v>356</v>
       </c>
-      <c r="R231" s="3">
+      <c r="R231" s="1">
         <v>3</v>
       </c>
       <c r="S231" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="T231" s="3">
+      <c r="T231" s="1">
         <v>379</v>
       </c>
-      <c r="U231" s="3">
+      <c r="U231" s="1">
         <v>2</v>
       </c>
       <c r="V231" s="1" t="s">
@@ -17288,19 +17285,19 @@
       <c r="J232" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K232" s="3">
+      <c r="K232" s="1">
         <v>9027</v>
       </c>
-      <c r="L232" s="3">
+      <c r="L232" s="1">
         <v>29</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="N232" s="3">
+      <c r="N232" s="1">
         <v>340</v>
       </c>
-      <c r="O232" s="3">
+      <c r="O232" s="1">
         <v>7</v>
       </c>
       <c r="P232" s="1" t="s">
@@ -17344,19 +17341,19 @@
       <c r="J233" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K233" s="3">
+      <c r="K233" s="1">
         <v>356</v>
       </c>
-      <c r="L233" s="3">
+      <c r="L233" s="1">
         <v>14</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="N233" s="3">
+      <c r="N233" s="1">
         <v>379</v>
       </c>
-      <c r="O233" s="3">
+      <c r="O233" s="1">
         <v>21</v>
       </c>
       <c r="P233" s="1" t="s">
@@ -17397,19 +17394,19 @@
       <c r="J234" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K234" s="3">
+      <c r="K234" s="1">
         <v>397</v>
       </c>
-      <c r="L234" s="3">
+      <c r="L234" s="1">
         <v>14</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="N234" s="3">
+      <c r="N234" s="1">
         <v>293</v>
       </c>
-      <c r="O234" s="3">
+      <c r="O234" s="1">
         <v>21</v>
       </c>
       <c r="P234" s="1" t="s">
@@ -17450,10 +17447,10 @@
       <c r="J235" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K235" s="3">
+      <c r="K235" s="1">
         <v>308</v>
       </c>
-      <c r="L235" s="3">
+      <c r="L235" s="1">
         <v>49</v>
       </c>
       <c r="M235" s="1" t="s">
@@ -17491,28 +17488,28 @@
       <c r="J236" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="K236" s="3">
+      <c r="K236" s="1">
         <v>161</v>
       </c>
-      <c r="L236" s="3">
+      <c r="L236" s="1">
         <v>14</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="N236" s="3">
+      <c r="N236" s="1">
         <v>245</v>
       </c>
-      <c r="O236" s="3">
+      <c r="O236" s="1">
         <v>14</v>
       </c>
       <c r="P236" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="Q236" s="3">
+      <c r="Q236" s="1">
         <v>421</v>
       </c>
-      <c r="R236" s="3">
+      <c r="R236" s="1">
         <v>14</v>
       </c>
       <c r="S236" s="1" t="s">
@@ -17553,10 +17550,10 @@
       <c r="J237" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="K237" s="3">
+      <c r="K237" s="1">
         <v>293</v>
       </c>
-      <c r="L237" s="3">
+      <c r="L237" s="1">
         <v>56</v>
       </c>
       <c r="M237" s="1" t="s">
@@ -17597,28 +17594,28 @@
       <c r="J238" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K238" s="3">
+      <c r="K238" s="1">
         <v>433</v>
       </c>
-      <c r="L238" s="3">
+      <c r="L238" s="1">
         <v>15</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="N238" s="3">
+      <c r="N238" s="1">
         <v>424</v>
       </c>
-      <c r="O238" s="3">
+      <c r="O238" s="1">
         <v>20</v>
       </c>
       <c r="P238" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="Q238" s="3">
+      <c r="Q238" s="1">
         <v>428</v>
       </c>
-      <c r="R238" s="3">
+      <c r="R238" s="1">
         <v>10</v>
       </c>
       <c r="S238" s="1" t="s">
@@ -17659,46 +17656,46 @@
       <c r="J239" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K239" s="3">
+      <c r="K239" s="1">
         <v>161</v>
       </c>
-      <c r="L239" s="3">
+      <c r="L239" s="1">
         <v>4</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="N239" s="3">
+      <c r="N239" s="1">
         <v>395</v>
       </c>
-      <c r="O239" s="3">
+      <c r="O239" s="1">
         <v>3</v>
       </c>
       <c r="P239" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="Q239" s="3">
+      <c r="Q239" s="1">
         <v>357</v>
       </c>
-      <c r="R239" s="3">
+      <c r="R239" s="1">
         <v>21</v>
       </c>
       <c r="S239" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="T239" s="3">
+      <c r="T239" s="1">
         <v>407</v>
       </c>
-      <c r="U239" s="3">
+      <c r="U239" s="1">
         <v>7</v>
       </c>
       <c r="V239" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="W239" s="3">
+      <c r="W239" s="1">
         <v>245</v>
       </c>
-      <c r="X239" s="3">
+      <c r="X239" s="1">
         <v>2</v>
       </c>
       <c r="Y239" s="1" t="s">
@@ -17739,28 +17736,28 @@
       <c r="J240" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K240" s="3">
+      <c r="K240" s="1">
         <v>161</v>
       </c>
-      <c r="L240" s="3">
+      <c r="L240" s="1">
         <v>7</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="N240" s="3">
+      <c r="N240" s="1">
         <v>161</v>
       </c>
-      <c r="O240" s="3">
+      <c r="O240" s="1">
         <v>7</v>
       </c>
       <c r="P240" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="Q240" s="3">
+      <c r="Q240" s="1">
         <v>9035</v>
       </c>
-      <c r="R240" s="3">
+      <c r="R240" s="1">
         <v>26</v>
       </c>
       <c r="S240" s="1" t="s">
@@ -17801,46 +17798,46 @@
       <c r="J241" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K241" s="3">
+      <c r="K241" s="1">
         <v>9035</v>
       </c>
-      <c r="L241" s="3">
+      <c r="L241" s="1">
         <v>7</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="N241" s="3">
+      <c r="N241" s="1">
         <v>9035</v>
       </c>
-      <c r="O241" s="3">
+      <c r="O241" s="1">
         <v>21</v>
       </c>
       <c r="P241" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Q241" s="3">
+      <c r="Q241" s="1">
         <v>371</v>
       </c>
-      <c r="R241" s="3">
+      <c r="R241" s="1">
         <v>2</v>
       </c>
       <c r="S241" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="T241" s="3">
+      <c r="T241" s="1">
         <v>333</v>
       </c>
-      <c r="U241" s="3">
+      <c r="U241" s="1">
         <v>2</v>
       </c>
       <c r="V241" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="W241" s="3">
+      <c r="W241" s="1">
         <v>392</v>
       </c>
-      <c r="X241" s="3">
+      <c r="X241" s="1">
         <v>3</v>
       </c>
       <c r="Y241" s="1" t="s">
@@ -17881,19 +17878,19 @@
       <c r="J242" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K242" s="3">
+      <c r="K242" s="1">
         <v>300</v>
       </c>
-      <c r="L242" s="3">
+      <c r="L242" s="1">
         <v>1</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="N242" s="3">
+      <c r="N242" s="1">
         <v>9035</v>
       </c>
-      <c r="O242" s="3">
+      <c r="O242" s="1">
         <v>37</v>
       </c>
       <c r="P242" s="1" t="s">
@@ -17934,37 +17931,37 @@
       <c r="J243" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K243" s="3">
+      <c r="K243" s="1">
         <v>9035</v>
       </c>
-      <c r="L243" s="3">
+      <c r="L243" s="1">
         <v>24</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="N243" s="3">
+      <c r="N243" s="1">
         <v>245</v>
       </c>
-      <c r="O243" s="3">
+      <c r="O243" s="1">
         <v>3</v>
       </c>
       <c r="P243" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="Q243" s="3">
+      <c r="Q243" s="1">
         <v>411</v>
       </c>
-      <c r="R243" s="3">
+      <c r="R243" s="1">
         <v>4</v>
       </c>
       <c r="S243" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="T243" s="3">
+      <c r="T243" s="1">
         <v>384</v>
       </c>
-      <c r="U243" s="3">
+      <c r="U243" s="1">
         <v>4</v>
       </c>
       <c r="V243" s="1" t="s">
@@ -18002,37 +17999,37 @@
       <c r="J244" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K244" s="3">
+      <c r="K244" s="1">
         <v>411</v>
       </c>
-      <c r="L244" s="3">
+      <c r="L244" s="1">
         <v>15</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="N244" s="3">
+      <c r="N244" s="1">
         <v>403</v>
       </c>
-      <c r="O244" s="3">
+      <c r="O244" s="1">
         <v>15</v>
       </c>
       <c r="P244" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="Q244" s="3">
+      <c r="Q244" s="1">
         <v>369</v>
       </c>
-      <c r="R244" s="3">
+      <c r="R244" s="1">
         <v>7</v>
       </c>
       <c r="S244" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="T244" s="3">
+      <c r="T244" s="1">
         <v>432</v>
       </c>
-      <c r="U244" s="3">
+      <c r="U244" s="1">
         <v>3</v>
       </c>
       <c r="V244" s="1" t="s">
@@ -18073,10 +18070,10 @@
       <c r="J245" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K245" s="3">
+      <c r="K245" s="1">
         <v>5009</v>
       </c>
-      <c r="L245" s="3">
+      <c r="L245" s="1">
         <v>35</v>
       </c>
       <c r="M245" s="1" t="s">
@@ -18117,19 +18114,19 @@
       <c r="J246" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K246" s="3">
+      <c r="K246" s="1">
         <v>168</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="N246" s="3">
+      <c r="N246" s="1">
         <v>359</v>
       </c>
       <c r="P246" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="Q246" s="3">
+      <c r="Q246" s="1">
         <v>261</v>
       </c>
       <c r="R246" s="1" t="s">
@@ -18138,13 +18135,13 @@
       <c r="S246" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="T246" s="3">
+      <c r="T246" s="1">
         <v>9035</v>
       </c>
       <c r="V246" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="W246" s="3">
+      <c r="W246" s="1">
         <v>9035</v>
       </c>
       <c r="Y246" s="1" t="s">
@@ -18185,7 +18182,7 @@
       <c r="J247" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K247" s="3">
+      <c r="K247" s="1">
         <v>9035</v>
       </c>
       <c r="L247" s="1" t="s">
@@ -18194,7 +18191,7 @@
       <c r="M247" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="N247" s="3">
+      <c r="N247" s="1">
         <v>9035</v>
       </c>
       <c r="O247" s="1" t="s">
@@ -18203,19 +18200,19 @@
       <c r="P247" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="Q247" s="3">
+      <c r="Q247" s="1">
         <v>9035</v>
       </c>
       <c r="S247" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="T247" s="3">
+      <c r="T247" s="1">
         <v>9035</v>
       </c>
       <c r="V247" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="W247" s="3">
+      <c r="W247" s="1">
         <v>9035</v>
       </c>
       <c r="Y247" s="1" t="s">
@@ -18256,19 +18253,19 @@
       <c r="J248" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K248" s="3">
+      <c r="K248" s="1">
         <v>9035</v>
       </c>
-      <c r="L248" s="3">
+      <c r="L248" s="1">
         <v>7</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="N248" s="3">
+      <c r="N248" s="1">
         <v>9035</v>
       </c>
-      <c r="O248" s="3">
+      <c r="O248" s="1">
         <v>40</v>
       </c>
       <c r="P248" s="1" t="s">
@@ -18306,10 +18303,10 @@
       <c r="J249" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K249" s="3">
+      <c r="K249" s="1">
         <v>245</v>
       </c>
-      <c r="L249" s="3">
+      <c r="L249" s="1">
         <v>35</v>
       </c>
       <c r="M249" s="1" t="s">
@@ -18350,46 +18347,46 @@
       <c r="J250" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="K250" s="3">
+      <c r="K250" s="1">
         <v>212</v>
       </c>
-      <c r="L250" s="3">
+      <c r="L250" s="1">
         <v>8</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="N250" s="3">
+      <c r="N250" s="1">
         <v>212</v>
       </c>
-      <c r="O250" s="3">
+      <c r="O250" s="1">
         <v>8</v>
       </c>
       <c r="P250" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="Q250" s="3">
+      <c r="Q250" s="1">
         <v>212</v>
       </c>
-      <c r="R250" s="3">
+      <c r="R250" s="1">
         <v>8</v>
       </c>
       <c r="S250" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="T250" s="3">
+      <c r="T250" s="1">
         <v>212</v>
       </c>
-      <c r="U250" s="3">
+      <c r="U250" s="1">
         <v>8</v>
       </c>
       <c r="V250" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="W250" s="3">
+      <c r="W250" s="1">
         <v>212</v>
       </c>
-      <c r="X250" s="3">
+      <c r="X250" s="1">
         <v>8</v>
       </c>
       <c r="Y250" s="1" t="s">
@@ -18430,10 +18427,10 @@
       <c r="J251" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K251" s="3">
+      <c r="K251" s="1">
         <v>421</v>
       </c>
-      <c r="L251" s="3">
+      <c r="L251" s="1">
         <v>35</v>
       </c>
       <c r="M251" s="1" t="s">
@@ -18474,10 +18471,10 @@
       <c r="J252" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K252" s="3">
+      <c r="K252" s="1">
         <v>421</v>
       </c>
-      <c r="L252" s="3">
+      <c r="L252" s="1">
         <v>35</v>
       </c>
       <c r="M252" s="1" t="s">
@@ -18515,28 +18512,28 @@
       <c r="J253" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K253" s="3">
+      <c r="K253" s="1">
         <v>212</v>
       </c>
-      <c r="L253" s="3">
+      <c r="L253" s="1">
         <v>16</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="N253" s="3">
+      <c r="N253" s="1">
         <v>307</v>
       </c>
-      <c r="O253" s="3">
+      <c r="O253" s="1">
         <v>16</v>
       </c>
       <c r="P253" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="Q253" s="3">
+      <c r="Q253" s="1">
         <v>9022</v>
       </c>
-      <c r="R253" s="3">
+      <c r="R253" s="1">
         <v>4</v>
       </c>
       <c r="S253" s="1" t="s">
@@ -18574,37 +18571,37 @@
       <c r="J254" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="K254" s="3">
+      <c r="K254" s="1">
         <v>161</v>
       </c>
-      <c r="L254" s="3">
+      <c r="L254" s="1">
         <v>5</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="N254" s="3">
+      <c r="N254" s="1">
         <v>249</v>
       </c>
-      <c r="O254" s="3">
+      <c r="O254" s="1">
         <v>7</v>
       </c>
       <c r="P254" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="Q254" s="3">
+      <c r="Q254" s="1">
         <v>245</v>
       </c>
-      <c r="R254" s="3">
+      <c r="R254" s="1">
         <v>10</v>
       </c>
       <c r="S254" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="T254" s="3">
+      <c r="T254" s="1">
         <v>9022</v>
       </c>
-      <c r="U254" s="3">
+      <c r="U254" s="1">
         <v>14</v>
       </c>
       <c r="V254" s="1" t="s">
@@ -18642,10 +18639,10 @@
       <c r="J255" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K255" s="3">
+      <c r="K255" s="1">
         <v>308</v>
       </c>
-      <c r="L255" s="3">
+      <c r="L255" s="1">
         <v>35</v>
       </c>
       <c r="M255" s="1" t="s">
@@ -18686,10 +18683,10 @@
       <c r="J256" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K256" s="3">
+      <c r="K256" s="1">
         <v>0</v>
       </c>
-      <c r="L256" s="3">
+      <c r="L256" s="1">
         <v>1</v>
       </c>
       <c r="M256" s="1" t="s">
@@ -18727,19 +18724,19 @@
       <c r="J257" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K257" s="3">
+      <c r="K257" s="1">
         <v>183</v>
       </c>
-      <c r="L257" s="3">
+      <c r="L257" s="1">
         <v>21</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="N257" s="3">
+      <c r="N257" s="1">
         <v>212</v>
       </c>
-      <c r="O257" s="3">
+      <c r="O257" s="1">
         <v>14</v>
       </c>
       <c r="P257" s="1" t="s">
@@ -18777,28 +18774,28 @@
       <c r="J258" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K258" s="3">
+      <c r="K258" s="1">
         <v>307</v>
       </c>
-      <c r="L258" s="3">
+      <c r="L258" s="1">
         <v>14</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="N258" s="3">
+      <c r="N258" s="1">
         <v>307</v>
       </c>
-      <c r="O258" s="3">
+      <c r="O258" s="1">
         <v>7</v>
       </c>
       <c r="P258" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="Q258" s="3">
+      <c r="Q258" s="1">
         <v>307</v>
       </c>
-      <c r="R258" s="3">
+      <c r="R258" s="1">
         <v>14</v>
       </c>
       <c r="S258" s="1" t="s">
@@ -18836,10 +18833,10 @@
       <c r="J259" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K259" s="3">
+      <c r="K259" s="1">
         <v>249</v>
       </c>
-      <c r="L259" s="3">
+      <c r="L259" s="1">
         <v>35</v>
       </c>
       <c r="M259" s="1" t="s">
@@ -18877,37 +18874,37 @@
       <c r="J260" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K260" s="3">
+      <c r="K260" s="1">
         <v>433</v>
       </c>
-      <c r="L260" s="3">
+      <c r="L260" s="1">
         <v>16</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="N260" s="3">
+      <c r="N260" s="1">
         <v>428</v>
       </c>
-      <c r="O260" s="3">
+      <c r="O260" s="1">
         <v>10</v>
       </c>
       <c r="P260" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="Q260" s="3">
+      <c r="Q260" s="1">
         <v>293</v>
       </c>
-      <c r="R260" s="3">
+      <c r="R260" s="1">
         <v>7</v>
       </c>
       <c r="S260" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="T260" s="3">
+      <c r="T260" s="1">
         <v>245</v>
       </c>
-      <c r="U260" s="3">
+      <c r="U260" s="1">
         <v>10</v>
       </c>
       <c r="V260" s="1" t="s">
@@ -18945,19 +18942,19 @@
       <c r="J261" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="K261" s="3">
+      <c r="K261" s="1">
         <v>421</v>
       </c>
-      <c r="L261" s="3">
+      <c r="L261" s="1">
         <v>21</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="N261" s="3">
+      <c r="N261" s="1">
         <v>402</v>
       </c>
-      <c r="O261" s="3">
+      <c r="O261" s="1">
         <v>14</v>
       </c>
       <c r="P261" s="1" t="s">
@@ -18995,10 +18992,10 @@
       <c r="J262" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K262" s="3">
+      <c r="K262" s="1">
         <v>308</v>
       </c>
-      <c r="L262" s="3">
+      <c r="L262" s="1">
         <v>44</v>
       </c>
       <c r="M262" s="1" t="s">
@@ -19036,10 +19033,10 @@
       <c r="J263" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K263" s="3">
+      <c r="K263" s="1">
         <v>424</v>
       </c>
-      <c r="L263" s="3">
+      <c r="L263" s="1">
         <v>35</v>
       </c>
       <c r="M263" s="1" t="s">
@@ -19077,10 +19074,10 @@
       <c r="J264" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K264" s="3">
+      <c r="K264" s="1">
         <v>433</v>
       </c>
-      <c r="L264" s="3">
+      <c r="L264" s="1">
         <v>35</v>
       </c>
       <c r="M264" s="1" t="s">
@@ -19118,10 +19115,10 @@
       <c r="J265" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K265" s="3">
+      <c r="K265" s="1">
         <v>245</v>
       </c>
-      <c r="L265" s="3">
+      <c r="L265" s="1">
         <v>35</v>
       </c>
       <c r="M265" s="1" t="s">
@@ -19162,10 +19159,10 @@
       <c r="J266" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K266" s="3">
+      <c r="K266" s="1">
         <v>426</v>
       </c>
-      <c r="L266" s="3">
+      <c r="L266" s="1">
         <v>35</v>
       </c>
       <c r="M266" s="1" t="s">
@@ -19203,10 +19200,10 @@
       <c r="J267" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K267" s="3">
+      <c r="K267" s="1">
         <v>9037</v>
       </c>
-      <c r="L267" s="3">
+      <c r="L267" s="1">
         <v>100</v>
       </c>
       <c r="M267" s="1" t="s">
@@ -19244,10 +19241,10 @@
       <c r="J268" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K268" s="3">
+      <c r="K268" s="1">
         <v>293</v>
       </c>
-      <c r="L268" s="3">
+      <c r="L268" s="1">
         <v>50</v>
       </c>
       <c r="M268" s="1" t="s">
@@ -19285,10 +19282,10 @@
       <c r="J269" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K269" s="3">
+      <c r="K269" s="1">
         <v>212</v>
       </c>
-      <c r="L269" s="3">
+      <c r="L269" s="1">
         <v>40</v>
       </c>
       <c r="M269" s="1" t="s">
@@ -19326,28 +19323,28 @@
       <c r="J270" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K270" s="3">
+      <c r="K270" s="1">
         <v>9022</v>
       </c>
-      <c r="L270" s="3">
+      <c r="L270" s="1">
         <v>5</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="N270" s="3">
+      <c r="N270" s="1">
         <v>9022</v>
       </c>
-      <c r="O270" s="3">
+      <c r="O270" s="1">
         <v>7</v>
       </c>
       <c r="P270" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="Q270" s="3">
+      <c r="Q270" s="1">
         <v>9022</v>
       </c>
-      <c r="R270" s="3">
+      <c r="R270" s="1">
         <v>23</v>
       </c>
       <c r="S270" s="1" t="s">
@@ -19385,28 +19382,28 @@
       <c r="J271" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K271" s="3">
+      <c r="K271" s="1">
         <v>212</v>
       </c>
-      <c r="L271" s="3">
+      <c r="L271" s="1">
         <v>7</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="N271" s="3">
+      <c r="N271" s="1">
         <v>434</v>
       </c>
-      <c r="O271" s="3">
+      <c r="O271" s="1">
         <v>21</v>
       </c>
       <c r="P271" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="Q271" s="3">
+      <c r="Q271" s="1">
         <v>167</v>
       </c>
-      <c r="R271" s="3">
+      <c r="R271" s="1">
         <v>7</v>
       </c>
       <c r="S271" s="1" t="s">
@@ -19444,10 +19441,10 @@
       <c r="J272" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K272" s="3">
+      <c r="K272" s="1">
         <v>423</v>
       </c>
-      <c r="L272" s="3">
+      <c r="L272" s="1">
         <v>40</v>
       </c>
       <c r="M272" s="1" t="s">
@@ -19485,10 +19482,10 @@
       <c r="J273" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K273" s="3">
+      <c r="K273" s="1">
         <v>245</v>
       </c>
-      <c r="L273" s="3">
+      <c r="L273" s="1">
         <v>40</v>
       </c>
       <c r="M273" s="1" t="s">
@@ -19532,10 +19529,10 @@
       <c r="J274" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="K274" s="3">
+      <c r="K274" s="1">
         <v>245</v>
       </c>
-      <c r="L274" s="3">
+      <c r="L274" s="1">
         <v>62</v>
       </c>
       <c r="M274" s="1" t="s">
@@ -19573,28 +19570,28 @@
       <c r="J275" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K275" s="3">
+      <c r="K275" s="1">
         <v>293</v>
       </c>
-      <c r="L275" s="3">
+      <c r="L275" s="1">
         <v>7</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="N275" s="3">
+      <c r="N275" s="1">
         <v>245</v>
       </c>
-      <c r="O275" s="3">
+      <c r="O275" s="1">
         <v>7</v>
       </c>
       <c r="P275" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="Q275" s="3">
+      <c r="Q275" s="1">
         <v>308</v>
       </c>
-      <c r="R275" s="3">
+      <c r="R275" s="1">
         <v>21</v>
       </c>
       <c r="S275" s="1" t="s">
@@ -19632,10 +19629,10 @@
       <c r="J276" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K276" s="3">
+      <c r="K276" s="1">
         <v>211</v>
       </c>
-      <c r="L276" s="3">
+      <c r="L276" s="1">
         <v>35</v>
       </c>
       <c r="M276" s="1" t="s">
@@ -19673,19 +19670,19 @@
       <c r="J277" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K277" s="3">
+      <c r="K277" s="1">
         <v>435</v>
       </c>
-      <c r="L277" s="3">
+      <c r="L277" s="1">
         <v>23</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="N277" s="3">
+      <c r="N277" s="1">
         <v>428</v>
       </c>
-      <c r="O277" s="3">
+      <c r="O277" s="1">
         <v>16</v>
       </c>
       <c r="P277" s="1" t="s">
@@ -19723,28 +19720,28 @@
       <c r="J278" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K278" s="3">
+      <c r="K278" s="1">
         <v>424</v>
       </c>
-      <c r="L278" s="3">
+      <c r="L278" s="1">
         <v>6</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="N278" s="3">
+      <c r="N278" s="1">
         <v>435</v>
       </c>
-      <c r="O278" s="3">
+      <c r="O278" s="1">
         <v>10</v>
       </c>
       <c r="P278" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="Q278" s="3">
+      <c r="Q278" s="1">
         <v>433</v>
       </c>
-      <c r="R278" s="3">
+      <c r="R278" s="1">
         <v>20</v>
       </c>
       <c r="S278" s="1" t="s">
@@ -19782,37 +19779,37 @@
       <c r="J279" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K279" s="3">
+      <c r="K279" s="1">
         <v>397</v>
       </c>
-      <c r="L279" s="3">
+      <c r="L279" s="1">
         <v>35</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="N279" s="3">
+      <c r="N279" s="1">
         <v>397</v>
       </c>
-      <c r="O279" s="3">
+      <c r="O279" s="1">
         <v>35</v>
       </c>
       <c r="P279" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="Q279" s="3">
+      <c r="Q279" s="1">
         <v>406</v>
       </c>
-      <c r="R279" s="3">
+      <c r="R279" s="1">
         <v>35</v>
       </c>
       <c r="S279" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="T279" s="3">
+      <c r="T279" s="1">
         <v>406</v>
       </c>
-      <c r="U279" s="3">
+      <c r="U279" s="1">
         <v>35</v>
       </c>
       <c r="V279" s="1" t="s">
@@ -19850,10 +19847,10 @@
       <c r="J280" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K280" s="3">
+      <c r="K280" s="1">
         <v>293</v>
       </c>
-      <c r="L280" s="3">
+      <c r="L280" s="1">
         <v>40</v>
       </c>
       <c r="M280" s="1" t="s">
@@ -19894,19 +19891,19 @@
       <c r="J281" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K281" s="3">
+      <c r="K281" s="1">
         <v>421</v>
       </c>
-      <c r="L281" s="3">
+      <c r="L281" s="1">
         <v>8</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="N281" s="3">
+      <c r="N281" s="1">
         <v>421</v>
       </c>
-      <c r="O281" s="3">
+      <c r="O281" s="1">
         <v>40</v>
       </c>
       <c r="P281" s="1" t="s">
@@ -19944,10 +19941,10 @@
       <c r="J282" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K282" s="3">
+      <c r="K282" s="1">
         <v>293</v>
       </c>
-      <c r="L282" s="3">
+      <c r="L282" s="1">
         <v>48</v>
       </c>
       <c r="M282" s="1" t="s">
@@ -19985,10 +19982,10 @@
       <c r="J283" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K283" s="3">
+      <c r="K283" s="1">
         <v>397</v>
       </c>
-      <c r="L283" s="3">
+      <c r="L283" s="1">
         <v>40</v>
       </c>
       <c r="M283" s="1" t="s">
@@ -20026,37 +20023,37 @@
       <c r="J284" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K284" s="3">
+      <c r="K284" s="1">
         <v>293</v>
       </c>
-      <c r="L284" s="3">
+      <c r="L284" s="1">
         <v>7</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="N284" s="3">
+      <c r="N284" s="1">
         <v>309</v>
       </c>
-      <c r="O284" s="3">
+      <c r="O284" s="1">
         <v>2</v>
       </c>
       <c r="P284" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="Q284" s="3">
+      <c r="Q284" s="1">
         <v>340</v>
       </c>
-      <c r="R284" s="3">
+      <c r="R284" s="1">
         <v>2</v>
       </c>
       <c r="S284" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="T284" s="3">
+      <c r="T284" s="1">
         <v>9027</v>
       </c>
-      <c r="U284" s="3">
+      <c r="U284" s="1">
         <v>24</v>
       </c>
       <c r="V284" s="1" t="s">
@@ -20097,19 +20094,19 @@
       <c r="J285" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K285" s="3">
+      <c r="K285" s="1">
         <v>9027</v>
       </c>
-      <c r="L285" s="3">
+      <c r="L285" s="1">
         <v>15</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="N285" s="3">
+      <c r="N285" s="1">
         <v>379</v>
       </c>
-      <c r="O285" s="3">
+      <c r="O285" s="1">
         <v>22</v>
       </c>
       <c r="P285" s="1" t="s">
@@ -20150,19 +20147,19 @@
       <c r="J286" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K286" s="3">
+      <c r="K286" s="1">
         <v>382</v>
       </c>
-      <c r="L286" s="3">
+      <c r="L286" s="1">
         <v>32</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="N286" s="3">
+      <c r="N286" s="1">
         <v>9027</v>
       </c>
-      <c r="O286" s="3">
+      <c r="O286" s="1">
         <v>3</v>
       </c>
       <c r="P286" s="1" t="s">
@@ -20203,10 +20200,10 @@
       <c r="J287" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K287" s="3">
+      <c r="K287" s="1">
         <v>309</v>
       </c>
-      <c r="L287" s="3">
+      <c r="L287" s="1">
         <v>35</v>
       </c>
       <c r="M287" s="1" t="s">
@@ -20247,19 +20244,19 @@
       <c r="J288" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K288" s="3">
+      <c r="K288" s="1">
         <v>369</v>
       </c>
-      <c r="L288" s="3">
+      <c r="L288" s="1">
         <v>9</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="N288" s="3">
+      <c r="N288" s="1">
         <v>359</v>
       </c>
-      <c r="O288" s="3">
+      <c r="O288" s="1">
         <v>26</v>
       </c>
       <c r="P288" s="1" t="s">
@@ -20300,28 +20297,28 @@
       <c r="J289" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="K289" s="3">
+      <c r="K289" s="1">
         <v>307</v>
       </c>
-      <c r="L289" s="3">
+      <c r="L289" s="1">
         <v>21</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="N289" s="3">
+      <c r="N289" s="1">
         <v>245</v>
       </c>
-      <c r="O289" s="3">
+      <c r="O289" s="1">
         <v>11</v>
       </c>
       <c r="P289" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="Q289" s="3">
+      <c r="Q289" s="1">
         <v>9027</v>
       </c>
-      <c r="R289" s="3">
+      <c r="R289" s="1">
         <v>3</v>
       </c>
       <c r="S289" s="1" t="s">
@@ -20362,19 +20359,19 @@
       <c r="J290" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K290" s="3">
+      <c r="K290" s="1">
         <v>340</v>
       </c>
-      <c r="L290" s="3">
+      <c r="L290" s="1">
         <v>30</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="N290" s="3">
+      <c r="N290" s="1">
         <v>9027</v>
       </c>
-      <c r="O290" s="3">
+      <c r="O290" s="1">
         <v>7</v>
       </c>
       <c r="P290" s="1" t="s">
@@ -20442,37 +20439,37 @@
       <c r="J291" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K291" s="3">
+      <c r="K291" s="1">
         <v>406</v>
       </c>
-      <c r="L291" s="3">
+      <c r="L291" s="1">
         <v>21</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="N291" s="3">
+      <c r="N291" s="1">
         <v>358</v>
       </c>
-      <c r="O291" s="3">
+      <c r="O291" s="1">
         <v>5</v>
       </c>
       <c r="P291" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="Q291" s="3">
+      <c r="Q291" s="1">
         <v>421</v>
       </c>
-      <c r="R291" s="3">
+      <c r="R291" s="1">
         <v>4</v>
       </c>
       <c r="S291" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="T291" s="3">
+      <c r="T291" s="1">
         <v>9027</v>
       </c>
-      <c r="U291" s="3">
+      <c r="U291" s="1">
         <v>5</v>
       </c>
       <c r="V291" s="1" t="s">
@@ -20522,46 +20519,46 @@
       <c r="J292" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K292" s="3">
+      <c r="K292" s="1">
         <v>293</v>
       </c>
-      <c r="L292" s="3">
+      <c r="L292" s="1">
         <v>7</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="N292" s="3">
+      <c r="N292" s="1">
         <v>293</v>
       </c>
-      <c r="O292" s="3">
+      <c r="O292" s="1">
         <v>7</v>
       </c>
       <c r="P292" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="Q292" s="3">
+      <c r="Q292" s="1">
         <v>293</v>
       </c>
-      <c r="R292" s="3">
+      <c r="R292" s="1">
         <v>7</v>
       </c>
       <c r="S292" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="T292" s="3">
+      <c r="T292" s="1">
         <v>293</v>
       </c>
-      <c r="U292" s="3">
+      <c r="U292" s="1">
         <v>7</v>
       </c>
       <c r="V292" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="W292" s="3">
+      <c r="W292" s="1">
         <v>293</v>
       </c>
-      <c r="X292" s="3">
+      <c r="X292" s="1">
         <v>7</v>
       </c>
       <c r="Y292" s="1" t="s">
@@ -20602,46 +20599,46 @@
       <c r="J293" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="K293" s="3">
+      <c r="K293" s="1">
         <v>340</v>
       </c>
-      <c r="L293" s="3">
+      <c r="L293" s="1">
         <v>7.5</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="N293" s="3">
+      <c r="N293" s="1">
         <v>340</v>
       </c>
-      <c r="O293" s="3">
+      <c r="O293" s="1">
         <v>7.5</v>
       </c>
       <c r="P293" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="Q293" s="3">
+      <c r="Q293" s="1">
         <v>340</v>
       </c>
-      <c r="R293" s="3">
+      <c r="R293" s="1">
         <v>8</v>
       </c>
       <c r="S293" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="T293" s="3">
+      <c r="T293" s="1">
         <v>340</v>
       </c>
-      <c r="U293" s="3">
+      <c r="U293" s="1">
         <v>7</v>
       </c>
       <c r="V293" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="W293" s="3">
+      <c r="W293" s="1">
         <v>9027</v>
       </c>
-      <c r="X293" s="3">
+      <c r="X293" s="1">
         <v>7</v>
       </c>
       <c r="Z293" s="1" t="s">
@@ -20650,32 +20647,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
